--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28893AB-F0D8-4767-B91E-2E41BE149DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC0701-91ED-4BC5-8A04-37A0A03CC6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>674908</xdr:colOff>
+      <xdr:colOff>676813</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>302233</xdr:rowOff>
     </xdr:to>
@@ -833,9 +833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>637866</xdr:colOff>
+      <xdr:colOff>639771</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>312966</xdr:rowOff>
+      <xdr:rowOff>311061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1192,21 +1192,21 @@
       <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="8"/>
+    <col min="2" max="2" width="17.42578125" style="8"/>
     <col min="3" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="17.08984375" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="18" width="6.453125" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1225,7 +1225,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="47" t="s">
         <v>39</v>
@@ -1250,7 +1250,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
@@ -1269,7 +1269,7 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="20" t="s">
         <v>0</v>
@@ -1290,7 +1290,7 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="21"/>
       <c r="C5" s="18" t="s">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1358,7 +1358,7 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>34</v>
@@ -1379,7 +1379,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>11</v>
@@ -1400,7 +1400,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>12</v>
@@ -1421,7 +1421,7 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>13</v>
@@ -1442,7 +1442,7 @@
       <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
         <v>14</v>
@@ -1463,7 +1463,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>5</v>
@@ -1484,7 +1484,7 @@
       <c r="P12" s="29"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>6</v>
@@ -1505,7 +1505,7 @@
       <c r="P13" s="30"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
@@ -1526,7 +1526,7 @@
       <c r="P14" s="40"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
@@ -1547,7 +1547,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
         <v>17</v>
@@ -1568,7 +1568,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>18</v>
@@ -1589,7 +1589,7 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
@@ -1610,7 +1610,7 @@
       <c r="P18" s="40"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>19</v>
@@ -1631,7 +1631,7 @@
       <c r="P19" s="34"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
         <v>17</v>
@@ -1652,7 +1652,7 @@
       <c r="P20" s="29"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="13" t="s">
         <v>20</v>
@@ -1673,7 +1673,7 @@
       <c r="P21" s="30"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="s">
         <v>22</v>
@@ -1694,7 +1694,7 @@
       <c r="P22" s="40"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="15" t="s">
         <v>37</v>
@@ -1715,7 +1715,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>22</v>
@@ -1736,7 +1736,7 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="13" t="s">
         <v>38</v>
@@ -1757,7 +1757,7 @@
       <c r="P25" s="30"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>23</v>
@@ -1778,7 +1778,7 @@
       <c r="P26" s="40"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>21</v>
@@ -1799,7 +1799,7 @@
       <c r="P27" s="34"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
       <c r="C28" s="31"/>
@@ -1818,7 +1818,7 @@
       <c r="P28" s="29"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
       <c r="C29" s="41"/>
@@ -1837,7 +1837,7 @@
       <c r="P29" s="42"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1856,7 +1856,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1873,7 +1873,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -1892,7 +1892,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="43" t="s">
         <v>1</v>
@@ -1913,7 +1913,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="45"/>
       <c r="C34" s="46"/>
@@ -1932,7 +1932,7 @@
       <c r="P34" s="39"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="27" t="s">
         <v>0</v>
@@ -1974,7 +1974,7 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="28"/>
       <c r="C36" s="18" t="str">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>24</v>
@@ -2056,7 +2056,7 @@
       <c r="P37" s="33"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>25</v>
@@ -2077,7 +2077,7 @@
       <c r="P38" s="34"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>9</v>
@@ -2098,7 +2098,7 @@
       <c r="P39" s="29"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
         <v>26</v>
@@ -2119,7 +2119,7 @@
       <c r="P40" s="30"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>27</v>
@@ -2140,7 +2140,7 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="11" t="s">
         <v>28</v>
@@ -2161,7 +2161,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>8</v>
@@ -2182,7 +2182,7 @@
       <c r="P43" s="29"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
         <v>29</v>
@@ -2203,7 +2203,7 @@
       <c r="P44" s="30"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>30</v>
@@ -2224,7 +2224,7 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="11" t="s">
         <v>7</v>
@@ -2245,7 +2245,7 @@
       <c r="P46" s="34"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="12" t="s">
         <v>2</v>
@@ -2266,7 +2266,7 @@
       <c r="P47" s="29"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="13" t="s">
         <v>7</v>
@@ -2287,7 +2287,7 @@
       <c r="P48" s="30"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="14" t="s">
         <v>3</v>
@@ -2308,7 +2308,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="11" t="s">
         <v>28</v>
@@ -2329,7 +2329,7 @@
       <c r="P50" s="34"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="12" t="s">
         <v>35</v>
@@ -2350,7 +2350,7 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
       <c r="C52" s="32"/>
@@ -2369,7 +2369,7 @@
       <c r="P52" s="30"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="14" t="s">
         <v>36</v>
@@ -2390,7 +2390,7 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="11"/>
       <c r="C54" s="25"/>
@@ -2409,7 +2409,7 @@
       <c r="P54" s="34"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="12" t="s">
         <v>4</v>
@@ -2430,7 +2430,7 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="13" t="s">
         <v>41</v>
@@ -2451,7 +2451,7 @@
       <c r="P56" s="42"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="7"/>
       <c r="C57" s="3"/>
@@ -2470,7 +2470,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2487,7 +2487,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
@@ -2506,7 +2506,7 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="43" t="s">
         <v>40</v>
@@ -2531,7 +2531,7 @@
       <c r="P60" s="37"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="45"/>
       <c r="C61" s="46"/>
@@ -2550,7 +2550,7 @@
       <c r="P61" s="39"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="27" t="s">
         <v>0</v>
@@ -2592,7 +2592,7 @@
       <c r="P62" s="23"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="28"/>
       <c r="C63" s="18" t="str">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="14" t="s">
         <v>22</v>
@@ -2674,7 +2674,7 @@
       <c r="P64" s="33"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="17" t="s">
         <v>31</v>
@@ -2695,7 +2695,7 @@
       <c r="P65" s="34"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="12" t="s">
         <v>22</v>
@@ -2716,7 +2716,7 @@
       <c r="P66" s="29"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="13" t="s">
         <v>42</v>
@@ -2737,7 +2737,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="14"/>
       <c r="C68" s="35"/>
@@ -2756,7 +2756,7 @@
       <c r="P68" s="40"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="11"/>
       <c r="C69" s="25"/>
@@ -2775,7 +2775,7 @@
       <c r="P69" s="34"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
       <c r="C70" s="31"/>
@@ -2794,7 +2794,7 @@
       <c r="P70" s="29"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="13"/>
       <c r="C71" s="32"/>
@@ -2813,7 +2813,7 @@
       <c r="P71" s="30"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="14"/>
       <c r="C72" s="35"/>
@@ -2832,7 +2832,7 @@
       <c r="P72" s="40"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="11"/>
       <c r="C73" s="25"/>
@@ -2851,7 +2851,7 @@
       <c r="P73" s="34"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
       <c r="C74" s="31"/>
@@ -2870,7 +2870,7 @@
       <c r="P74" s="29"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="13"/>
       <c r="C75" s="32"/>
@@ -2889,7 +2889,7 @@
       <c r="P75" s="30"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="14"/>
       <c r="C76" s="35"/>
@@ -2908,7 +2908,7 @@
       <c r="P76" s="40"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="11"/>
       <c r="C77" s="25"/>
@@ -2927,7 +2927,7 @@
       <c r="P77" s="34"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
       <c r="C78" s="31"/>
@@ -2946,7 +2946,7 @@
       <c r="P78" s="29"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="13"/>
       <c r="C79" s="32"/>
@@ -2965,7 +2965,7 @@
       <c r="P79" s="30"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="14"/>
       <c r="C80" s="35"/>
@@ -2984,7 +2984,7 @@
       <c r="P80" s="40"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="11"/>
       <c r="C81" s="25"/>
@@ -3003,7 +3003,7 @@
       <c r="P81" s="34"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
       <c r="C82" s="31"/>
@@ -3022,7 +3022,7 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="13"/>
       <c r="C83" s="41"/>
@@ -3041,7 +3041,7 @@
       <c r="P83" s="42"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="7"/>
       <c r="C84" s="3"/>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1425248F-05CC-48D6-B4AE-1DFD7F936CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA501AAD-B3C9-4F45-85C6-B5AE486BDEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <t>Sulaf</t>
   </si>
   <si>
-    <t>Curtis</t>
+    <t>Kurt Kourto</t>
   </si>
 </sst>
 </file>
@@ -655,92 +655,92 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,8 +1188,8 @@
   </sheetPr>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,72 +1227,72 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="41" t="str">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="36" t="str">
         <f>"Week beginning"  &amp; CHAR(10) &amp;TEXT(C4,"ddd-dd-mmm")</f>
         <v>Week beginning
 Sat-00-Jan</v>
       </c>
-      <c r="P2" s="42"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="40"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
@@ -1342,20 +1342,20 @@
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="37"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1363,20 +1363,20 @@
       <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1384,20 +1384,20 @@
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1405,20 +1405,20 @@
       <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1426,20 +1426,20 @@
       <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="30"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="40"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1447,20 +1447,20 @@
       <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="31"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="34"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1468,20 +1468,20 @@
       <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="26"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1489,20 +1489,20 @@
       <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1510,20 +1510,20 @@
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="30"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1531,20 +1531,20 @@
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="31"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="34"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1552,20 +1552,20 @@
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1573,20 +1573,20 @@
       <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="30"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1594,20 +1594,20 @@
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="30"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="40"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1615,20 +1615,20 @@
       <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="31"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="34"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1636,20 +1636,20 @@
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="26"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1657,20 +1657,20 @@
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="27"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="30"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1678,20 +1678,20 @@
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="30"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="40"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1699,20 +1699,20 @@
       <c r="B23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="31"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="34"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1720,20 +1720,20 @@
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1741,20 +1741,20 @@
       <c r="B25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="27"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="30"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1762,20 +1762,20 @@
       <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="30"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="40"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1783,58 +1783,58 @@
       <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="31"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="34"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="34"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="42"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1894,89 +1894,89 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="42"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="37"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="22">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="35">
+      <c r="D35" s="23"/>
+      <c r="E35" s="22">
         <f t="shared" ref="E35" si="0">E4</f>
         <v>0</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35">
+      <c r="F35" s="23"/>
+      <c r="G35" s="22">
         <f t="shared" ref="G35" si="1">G4</f>
         <v>0</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="35">
+      <c r="H35" s="23"/>
+      <c r="I35" s="22">
         <f t="shared" ref="I35" si="2">I4</f>
         <v>0</v>
       </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="35">
+      <c r="J35" s="23"/>
+      <c r="K35" s="22">
         <f t="shared" ref="K35:M35" si="3">K4</f>
         <v>0</v>
       </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="35">
+      <c r="L35" s="23"/>
+      <c r="M35" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="35">
+      <c r="N35" s="23"/>
+      <c r="O35" s="22">
         <f t="shared" ref="O35" si="4">O4</f>
         <v>0</v>
       </c>
-      <c r="P35" s="36"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="46"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="18" t="s">
         <v>33</v>
       </c>
@@ -2026,20 +2026,20 @@
       <c r="B37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="37"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="33"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2047,20 +2047,20 @@
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="31"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="34"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2068,20 +2068,20 @@
       <c r="B39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="26"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2089,20 +2089,20 @@
       <c r="B40" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="27"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="30"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2110,20 +2110,20 @@
       <c r="B41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="30"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="40"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2131,20 +2131,20 @@
       <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="31"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="34"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2152,20 +2152,20 @@
       <c r="B43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="26"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2173,20 +2173,20 @@
       <c r="B44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="27"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="30"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2194,20 +2194,20 @@
       <c r="B45" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="30"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="40"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2215,20 +2215,20 @@
       <c r="B46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="31"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="34"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2236,20 +2236,20 @@
       <c r="B47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="26"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="29"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2257,20 +2257,20 @@
       <c r="B48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="27"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="30"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2278,20 +2278,20 @@
       <c r="B49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="30"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="40"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2299,20 +2299,20 @@
       <c r="B50" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="31"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="34"/>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2320,39 +2320,39 @@
       <c r="B51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="26"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="27"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="30"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2360,39 +2360,39 @@
       <c r="B53" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="30"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="40"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="31"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="34"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2400,20 +2400,20 @@
       <c r="B55" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="26"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2421,20 +2421,20 @@
       <c r="B56" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="34"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="42"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2494,93 +2494,93 @@
     </row>
     <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="41" t="str">
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="36" t="str">
         <f>O2</f>
         <v>Week beginning
 Sat-00-Jan</v>
       </c>
-      <c r="P60" s="42"/>
+      <c r="P60" s="37"/>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="44"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="39"/>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="22">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="35">
+      <c r="D62" s="23"/>
+      <c r="E62" s="22">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="35">
+      <c r="F62" s="23"/>
+      <c r="G62" s="22">
         <f>G4</f>
         <v>0</v>
       </c>
-      <c r="H62" s="36"/>
-      <c r="I62" s="35">
+      <c r="H62" s="23"/>
+      <c r="I62" s="22">
         <f>I4</f>
         <v>0</v>
       </c>
-      <c r="J62" s="36"/>
-      <c r="K62" s="35">
+      <c r="J62" s="23"/>
+      <c r="K62" s="22">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="L62" s="36"/>
-      <c r="M62" s="35">
+      <c r="L62" s="23"/>
+      <c r="M62" s="22">
         <f>M4</f>
         <v>0</v>
       </c>
-      <c r="N62" s="36"/>
-      <c r="O62" s="35">
+      <c r="N62" s="23"/>
+      <c r="O62" s="22">
         <f>O4</f>
         <v>0</v>
       </c>
-      <c r="P62" s="36"/>
+      <c r="P62" s="23"/>
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
-      <c r="B63" s="46"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="18" t="s">
         <v>33</v>
       </c>
@@ -2630,20 +2630,20 @@
       <c r="B64" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="37"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="33"/>
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2651,20 +2651,20 @@
       <c r="B65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="31"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="34"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2672,20 +2672,20 @@
       <c r="B66" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="26"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="29"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2693,324 +2693,324 @@
       <c r="B67" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="27"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="30"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="30"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="40"/>
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="31"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="34"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="26"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="29"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="27"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="30"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="30"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="40"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="31"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="34"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="26"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="29"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="27"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="30"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="30"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="40"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="31"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="34"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="26"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="29"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="27"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="30"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="30"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="40"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="31"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="34"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="26"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="29"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="34"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="42"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3034,6 +3034,460 @@
     </row>
   </sheetData>
   <mergeCells count="478">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="B60:N61"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="O60:P61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C6:C7"/>
@@ -3058,460 +3512,6 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O60:P61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="B60:N61"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA501AAD-B3C9-4F45-85C6-B5AE486BDEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29165E37-533E-46DE-A9DC-17F76A7C02D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +290,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF981002"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDDEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -600,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -655,111 +667,248 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFBDDEE"/>
+      <color rgb="FF981002"/>
       <color rgb="FFFFF4D5"/>
       <color rgb="FF7963FD"/>
       <color rgb="FFF391C9"/>
-      <color rgb="FF981002"/>
       <color rgb="FFDEAEFC"/>
       <color rgb="FFCE85FB"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -784,7 +933,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>676813</xdr:colOff>
+      <xdr:colOff>673638</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>302233</xdr:rowOff>
     </xdr:to>
@@ -833,9 +982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>639771</xdr:colOff>
+      <xdr:colOff>636596</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>317411</xdr:rowOff>
+      <xdr:rowOff>314236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -873,50 +1022,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44147</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>55638</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="593719" cy="593878"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF90E9C-443E-486E-AE38-F0F7496E91D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="54264" r="21937" b="37589"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="118760" y="11699951"/>
-          <a:ext cx="593719" cy="593878"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1188,8 +1293,8 @@
   </sheetPr>
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,72 +1332,72 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="36" t="str">
-        <f>"Week beginning"  &amp; CHAR(10) &amp;TEXT(C4,"ddd-dd-mmm")</f>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="41" t="str">
+        <f>"Week beginning" &amp; CHAR(10) &amp; TEXT(C4,"ddd-dd-mmm") &amp; " (W " &amp; WEEKNUM(C4,2) &amp; ")"</f>
         <v>Week beginning
-Sat-00-Jan</v>
-      </c>
-      <c r="P2" s="37"/>
+Sat-00-Jan (W 1)</v>
+      </c>
+      <c r="P2" s="42"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="26"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
@@ -1342,20 +1447,20 @@
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="37"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1363,20 +1468,20 @@
       <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="31"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1384,20 +1489,20 @@
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="29"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1405,20 +1510,20 @@
       <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1426,20 +1531,20 @@
       <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="40"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1447,20 +1552,20 @@
       <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1468,20 +1573,20 @@
       <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1489,20 +1594,20 @@
       <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1510,20 +1615,20 @@
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="40"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1531,20 +1636,20 @@
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="31"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1552,20 +1657,20 @@
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1573,20 +1678,20 @@
       <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1594,20 +1699,20 @@
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="40"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1615,20 +1720,20 @@
       <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="34"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="31"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1636,20 +1741,20 @@
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1657,20 +1762,20 @@
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="30"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1678,20 +1783,20 @@
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="40"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1699,20 +1804,20 @@
       <c r="B23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="31"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1720,20 +1825,20 @@
       <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="29"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1741,20 +1846,20 @@
       <c r="B25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="30"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1762,20 +1867,20 @@
       <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="40"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1783,58 +1888,58 @@
       <c r="B27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="31"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="29"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="42"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="34"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1894,89 +1999,93 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="37"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="41" t="str">
+        <f>O2</f>
+        <v>Week beginning
+Sat-00-Jan (W 1)</v>
+      </c>
+      <c r="P33" s="42"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="39"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="35">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22">
+      <c r="D35" s="36"/>
+      <c r="E35" s="35">
         <f t="shared" ref="E35" si="0">E4</f>
         <v>0</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22">
+      <c r="F35" s="36"/>
+      <c r="G35" s="35">
         <f t="shared" ref="G35" si="1">G4</f>
         <v>0</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="22">
+      <c r="H35" s="36"/>
+      <c r="I35" s="35">
         <f t="shared" ref="I35" si="2">I4</f>
         <v>0</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="22">
+      <c r="J35" s="36"/>
+      <c r="K35" s="35">
         <f t="shared" ref="K35:M35" si="3">K4</f>
         <v>0</v>
       </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="22">
+      <c r="L35" s="36"/>
+      <c r="M35" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="22">
+      <c r="N35" s="36"/>
+      <c r="O35" s="35">
         <f t="shared" ref="O35" si="4">O4</f>
         <v>0</v>
       </c>
-      <c r="P35" s="23"/>
+      <c r="P35" s="36"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="18" t="s">
         <v>33</v>
       </c>
@@ -2026,20 +2135,20 @@
       <c r="B37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="37"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2047,20 +2156,20 @@
       <c r="B38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="34"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="31"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2068,20 +2177,20 @@
       <c r="B39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="29"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="26"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2089,20 +2198,20 @@
       <c r="B40" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="30"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2110,20 +2219,20 @@
       <c r="B41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="40"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="30"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2131,20 +2240,20 @@
       <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="34"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2152,20 +2261,20 @@
       <c r="B43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="29"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="26"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2173,20 +2282,20 @@
       <c r="B44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="30"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2194,20 +2303,20 @@
       <c r="B45" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="40"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="30"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2215,20 +2324,20 @@
       <c r="B46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="34"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="31"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2236,20 +2345,20 @@
       <c r="B47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="29"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="26"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2257,20 +2366,20 @@
       <c r="B48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="30"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="27"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2278,20 +2387,20 @@
       <c r="B49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="40"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="30"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2299,20 +2408,20 @@
       <c r="B50" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="34"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="31"/>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2320,39 +2429,39 @@
       <c r="B51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="29"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="26"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="30"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="27"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2360,39 +2469,39 @@
       <c r="B53" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="40"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="30"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="34"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="31"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2400,20 +2509,20 @@
       <c r="B55" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="29"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="26"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2421,20 +2530,20 @@
       <c r="B56" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="42"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="34"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2494,93 +2603,93 @@
     </row>
     <row r="60" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="36" t="str">
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="53" t="str">
         <f>O2</f>
         <v>Week beginning
-Sat-00-Jan</v>
-      </c>
-      <c r="P60" s="37"/>
+Sat-00-Jan (W 1)</v>
+      </c>
+      <c r="P60" s="54"/>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="39"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="56"/>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="35">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22">
+      <c r="D62" s="36"/>
+      <c r="E62" s="35">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22">
+      <c r="F62" s="36"/>
+      <c r="G62" s="35">
         <f>G4</f>
         <v>0</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="22">
+      <c r="H62" s="36"/>
+      <c r="I62" s="35">
         <f>I4</f>
         <v>0</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="K62" s="22">
+      <c r="J62" s="36"/>
+      <c r="K62" s="35">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="22">
+      <c r="L62" s="36"/>
+      <c r="M62" s="35">
         <f>M4</f>
         <v>0</v>
       </c>
-      <c r="N62" s="23"/>
-      <c r="O62" s="22">
+      <c r="N62" s="36"/>
+      <c r="O62" s="35">
         <f>O4</f>
         <v>0</v>
       </c>
-      <c r="P62" s="23"/>
+      <c r="P62" s="36"/>
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
-      <c r="B63" s="28"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="18" t="s">
         <v>33</v>
       </c>
@@ -2630,20 +2739,20 @@
       <c r="B64" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="37"/>
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2651,20 +2760,20 @@
       <c r="B65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="34"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="31"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2672,20 +2781,20 @@
       <c r="B66" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="29"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="26"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2693,324 +2802,324 @@
       <c r="B67" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="30"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="27"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="40"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="30"/>
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="34"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="31"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="29"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="26"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="30"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="27"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="40"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="30"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="34"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="31"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="29"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="26"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="30"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="27"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="40"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="30"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="34"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="31"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="29"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="26"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="30"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="27"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="40"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="30"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="34"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="31"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="29"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="26"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="42"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="34"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3034,6 +3143,460 @@
     </row>
   </sheetData>
   <mergeCells count="478">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O60:P61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="B60:N61"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="M74:M75"/>
     <mergeCell ref="N74:N75"/>
@@ -3058,462 +3621,30 @@
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="M28:M29"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="B60:N61"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="O60:P61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:Q1048576">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Blue Ice">
+      <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:P1048576">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Physiology Lab">
+      <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Al Rayyan SC">
+      <formula>NOT(ISERROR(SEARCH("Al Rayyan SC",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Recovery Center">
+      <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Khalifa Stadium">
+      <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Training Camp">
+      <formula>NOT(ISERROR(SEARCH("Training Camp",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3E0C7-9233-4BB6-A8C7-92E7B187CDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A414F6-FAA0-4375-BBFE-929B06438C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,158 +720,158 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,8 +1318,8 @@
   </sheetPr>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,72 +1357,72 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="38" t="str">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="67" t="str">
         <f>"Week beginning" &amp; CHAR(10) &amp; TEXT(C4,"ddd-dd-mmm") &amp; " W-" &amp; WEEKNUM(C4)</f>
         <v>Week beginning
 Sat-00-Jan W-0</v>
       </c>
-      <c r="P2" s="39"/>
+      <c r="P2" s="68"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="28"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="60"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="23"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1472,20 +1472,20 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="35"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="49"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1493,20 +1493,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="36"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1514,20 +1514,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="31"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1535,20 +1535,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="32"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1556,20 +1556,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="43"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1577,20 +1577,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="36"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="44"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1598,20 +1598,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="31"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="39"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1619,20 +1619,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="32"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="40"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1640,20 +1640,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="42"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="43"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1661,20 +1661,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="36"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1682,20 +1682,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="31"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="39"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1703,20 +1703,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="32"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="40"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1724,20 +1724,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1745,20 +1745,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="36"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1766,20 +1766,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="31"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="39"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1787,20 +1787,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="32"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="40"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1808,20 +1808,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="43"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1829,20 +1829,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="36"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="44"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1850,20 +1850,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="31"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="39"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1871,20 +1871,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="32"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="40"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1892,20 +1892,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="43"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1913,58 +1913,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="36"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="31"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="39"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="57"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2024,93 +2024,93 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="38" t="str">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="67" t="str">
         <f>O2</f>
         <v>Week beginning
 Sat-00-Jan W-0</v>
       </c>
-      <c r="P33" s="39"/>
+      <c r="P33" s="68"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="47">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="24">
+      <c r="D35" s="48"/>
+      <c r="E35" s="47">
         <f t="shared" ref="E35" si="0">E4</f>
         <v>0</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24">
+      <c r="F35" s="48"/>
+      <c r="G35" s="47">
         <f t="shared" ref="G35" si="1">G4</f>
         <v>0</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="24">
+      <c r="H35" s="48"/>
+      <c r="I35" s="47">
         <f t="shared" ref="I35" si="2">I4</f>
         <v>0</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="24">
+      <c r="J35" s="48"/>
+      <c r="K35" s="47">
         <f t="shared" ref="K35:M35" si="3">K4</f>
         <v>0</v>
       </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="24">
+      <c r="L35" s="48"/>
+      <c r="M35" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="25"/>
-      <c r="O35" s="24">
+      <c r="N35" s="48"/>
+      <c r="O35" s="47">
         <f t="shared" ref="O35" si="4">O4</f>
         <v>0</v>
       </c>
-      <c r="P35" s="25"/>
+      <c r="P35" s="48"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="30"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2155,67 +2155,67 @@
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="35"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="49"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="36"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="44"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="31"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="39"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2223,41 +2223,41 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="32"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="40"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="42"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="43"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2265,41 +2265,41 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="36"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="44"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="31"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="39"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2307,41 +2307,41 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="32"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="40"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="42"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="43"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2349,88 +2349,88 @@
       <c r="B46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="36"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="44"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="71"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="32"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="62"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="25"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="62"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="25"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="20"/>
@@ -2454,20 +2454,20 @@
       <c r="B51" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="42"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="43"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -2475,20 +2475,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="36"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="44"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2496,39 +2496,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="31"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="39"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="32"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="40"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2536,144 +2536,144 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="42"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="43"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="36"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="44"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="68"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="56"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="64"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="27"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="64"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="64"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="27"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="64"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="27"/>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2733,93 +2733,93 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="45" t="str">
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="61" t="str">
         <f>O2</f>
         <v>Week beginning
 Sat-00-Jan W-0</v>
       </c>
-      <c r="P65" s="46"/>
+      <c r="P65" s="62"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="48"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="64"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="47">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="24">
+      <c r="D67" s="48"/>
+      <c r="E67" s="47">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="24">
+      <c r="F67" s="48"/>
+      <c r="G67" s="47">
         <f>G4</f>
         <v>0</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="24">
+      <c r="H67" s="48"/>
+      <c r="I67" s="47">
         <f>I4</f>
         <v>0</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="24">
+      <c r="J67" s="48"/>
+      <c r="K67" s="47">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="L67" s="25"/>
-      <c r="M67" s="24">
+      <c r="L67" s="48"/>
+      <c r="M67" s="47">
         <f>M4</f>
         <v>0</v>
       </c>
-      <c r="N67" s="25"/>
-      <c r="O67" s="24">
+      <c r="N67" s="48"/>
+      <c r="O67" s="47">
         <f>O4</f>
         <v>0</v>
       </c>
-      <c r="P67" s="25"/>
+      <c r="P67" s="48"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="30"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -2869,20 +2869,20 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="35"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="49"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2890,20 +2890,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="36"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="44"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2911,20 +2911,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="31"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="39"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2932,20 +2932,20 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="32"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="40"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2953,20 +2953,20 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="42"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="43"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2974,20 +2974,20 @@
       <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="36"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="44"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2995,20 +2995,20 @@
       <c r="B75" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="31"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="39"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3016,20 +3016,20 @@
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="32"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="40"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3037,20 +3037,20 @@
       <c r="B77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="42"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="43"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3058,20 +3058,20 @@
       <c r="B78" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="36"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="44"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3079,20 +3079,20 @@
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="31"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="39"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3100,172 +3100,172 @@
       <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="32"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="40"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="42"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="43"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="36"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="44"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="31"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="39"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="32"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="40"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="42"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="43"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="36"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="44"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="31"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="39"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="57"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3289,81 +3289,346 @@
     </row>
   </sheetData>
   <mergeCells count="452">
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
     <mergeCell ref="O85:O86"/>
     <mergeCell ref="P85:P86"/>
     <mergeCell ref="D87:D88"/>
@@ -3388,76 +3653,51 @@
     <mergeCell ref="L85:L86"/>
     <mergeCell ref="M87:M88"/>
     <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
     <mergeCell ref="O73:O74"/>
     <mergeCell ref="P73:P74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
     <mergeCell ref="O69:O70"/>
     <mergeCell ref="P69:P70"/>
     <mergeCell ref="D71:D72"/>
@@ -3467,283 +3707,43 @@
     <mergeCell ref="H71:H72"/>
     <mergeCell ref="I71:I72"/>
     <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:P46 C58:P1048576 C57 C48:P56 C47">
+  <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Training Camp">
       <formula>NOT(ISERROR(SEARCH("Training Camp",C1)))</formula>
     </cfRule>
@@ -3760,7 +3760,7 @@
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:Q46 C58:Q1048576 C57 Q57 C48:Q56 C47 Q47">
+  <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
     </cfRule>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A414F6-FAA0-4375-BBFE-929B06438C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781D908-B7D0-40D6-9D09-799A24012BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,6 +744,120 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,120 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,8 +1318,8 @@
   </sheetPr>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,72 +1357,72 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="67" t="str">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="46" t="str">
         <f>"Week beginning" &amp; CHAR(10) &amp; TEXT(C4,"ddd-dd-mmm") &amp; " W-" &amp; WEEKNUM(C4)</f>
         <v>Week beginning
 Sat-00-Jan W-0</v>
       </c>
-      <c r="P2" s="68"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="60"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="72"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1472,20 +1472,20 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="49"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1493,19 +1493,19 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="42"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="44"/>
-      <c r="G7" s="42"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="44"/>
-      <c r="I7" s="42"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="42"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="44"/>
-      <c r="M7" s="42"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="44"/>
-      <c r="O7" s="42"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="3"/>
     </row>
@@ -1514,19 +1514,19 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="39"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="39"/>
-      <c r="I8" s="37"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="37"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="39"/>
-      <c r="O8" s="37"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="3"/>
     </row>
@@ -1535,19 +1535,19 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="38"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="38"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="40"/>
-      <c r="O9" s="38"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
     </row>
@@ -1556,20 +1556,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="43"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="50"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1577,19 +1577,19 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="42"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="44"/>
-      <c r="G11" s="42"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="44"/>
-      <c r="I11" s="42"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="44"/>
-      <c r="K11" s="42"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="44"/>
-      <c r="M11" s="42"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="44"/>
-      <c r="O11" s="42"/>
+      <c r="O11" s="35"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="3"/>
     </row>
@@ -1598,19 +1598,19 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="39"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="39"/>
-      <c r="O12" s="37"/>
+      <c r="O12" s="41"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="3"/>
     </row>
@@ -1619,19 +1619,19 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="38"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="38"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="38"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="40"/>
-      <c r="O13" s="38"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="3"/>
     </row>
@@ -1640,20 +1640,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="50"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1661,19 +1661,19 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="42"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="42"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="44"/>
-      <c r="K15" s="42"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="44"/>
-      <c r="M15" s="42"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="44"/>
-      <c r="O15" s="42"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="3"/>
     </row>
@@ -1682,19 +1682,19 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="37"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="37"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="37"/>
+      <c r="O16" s="41"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="3"/>
     </row>
@@ -1703,19 +1703,19 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="38"/>
+      <c r="K17" s="42"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="38"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="40"/>
-      <c r="O17" s="38"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="40"/>
       <c r="Q17" s="3"/>
     </row>
@@ -1724,20 +1724,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="50"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1745,19 +1745,19 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="42"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="44"/>
-      <c r="K19" s="42"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="44"/>
-      <c r="M19" s="42"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="44"/>
-      <c r="O19" s="42"/>
+      <c r="O19" s="35"/>
       <c r="P19" s="44"/>
       <c r="Q19" s="3"/>
     </row>
@@ -1766,19 +1766,19 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="37"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="39"/>
-      <c r="M20" s="37"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="39"/>
-      <c r="O20" s="37"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="3"/>
     </row>
@@ -1787,19 +1787,19 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="38"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
+      <c r="K21" s="42"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="38"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="3"/>
     </row>
@@ -1808,20 +1808,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="50"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1829,19 +1829,19 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="42"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="44"/>
-      <c r="I23" s="42"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="44"/>
-      <c r="K23" s="42"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="44"/>
-      <c r="M23" s="42"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="44"/>
-      <c r="O23" s="42"/>
+      <c r="O23" s="35"/>
       <c r="P23" s="44"/>
       <c r="Q23" s="3"/>
     </row>
@@ -1850,19 +1850,19 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="37"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="39"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="37"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="39"/>
-      <c r="M24" s="37"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="39"/>
-      <c r="O24" s="37"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="3"/>
     </row>
@@ -1871,19 +1871,19 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="38"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="38"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="38"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="40"/>
-      <c r="O25" s="38"/>
+      <c r="O25" s="42"/>
       <c r="P25" s="40"/>
       <c r="Q25" s="3"/>
     </row>
@@ -1892,20 +1892,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="43"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="50"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1913,58 +1913,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="42"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="44"/>
-      <c r="I27" s="42"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="44"/>
-      <c r="K27" s="42"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="44"/>
-      <c r="M27" s="42"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="44"/>
-      <c r="O27" s="42"/>
+      <c r="O27" s="35"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="37"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="39"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="37"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="39"/>
-      <c r="M28" s="37"/>
+      <c r="M28" s="41"/>
       <c r="N28" s="39"/>
-      <c r="O28" s="37"/>
+      <c r="O28" s="41"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="57"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="56"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2024,93 +2024,72 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="67" t="str">
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="46" t="str">
         <f>O2</f>
         <v>Week beginning
 Sat-00-Jan W-0</v>
       </c>
-      <c r="P33" s="68"/>
+      <c r="P33" s="47"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="70"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="47">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="47">
-        <f t="shared" ref="E35" si="0">E4</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="47">
-        <f t="shared" ref="G35" si="1">G4</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="47">
-        <f t="shared" ref="I35" si="2">I4</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="47">
-        <f t="shared" ref="K35:M35" si="3">K4</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="48"/>
-      <c r="M35" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="48"/>
-      <c r="O35" s="47">
-        <f t="shared" ref="O35" si="4">O4</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="48"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="66"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2160,20 +2139,20 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="49"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="43"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2181,40 +2160,40 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="42"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="42"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="42"/>
+      <c r="G38" s="35"/>
       <c r="H38" s="44"/>
-      <c r="I38" s="42"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="44"/>
-      <c r="K38" s="42"/>
+      <c r="K38" s="35"/>
       <c r="L38" s="44"/>
-      <c r="M38" s="42"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="44"/>
-      <c r="O38" s="42"/>
+      <c r="O38" s="35"/>
       <c r="P38" s="44"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="37"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="37"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="37"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="39"/>
-      <c r="K39" s="37"/>
+      <c r="K39" s="41"/>
       <c r="L39" s="39"/>
-      <c r="M39" s="37"/>
+      <c r="M39" s="41"/>
       <c r="N39" s="39"/>
-      <c r="O39" s="37"/>
+      <c r="O39" s="41"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="3"/>
     </row>
@@ -2223,41 +2202,41 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="38"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="38"/>
+      <c r="E40" s="42"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="38"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="38"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="38"/>
+      <c r="K40" s="42"/>
       <c r="L40" s="40"/>
-      <c r="M40" s="38"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="40"/>
-      <c r="O40" s="38"/>
+      <c r="O40" s="42"/>
       <c r="P40" s="40"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="43"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="50"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2265,40 +2244,40 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="42"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="42"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="44"/>
-      <c r="G42" s="42"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="44"/>
-      <c r="I42" s="42"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="44"/>
-      <c r="K42" s="42"/>
+      <c r="K42" s="35"/>
       <c r="L42" s="44"/>
-      <c r="M42" s="42"/>
+      <c r="M42" s="35"/>
       <c r="N42" s="44"/>
-      <c r="O42" s="42"/>
+      <c r="O42" s="35"/>
       <c r="P42" s="44"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="37"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="37"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="37"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="39"/>
-      <c r="K43" s="37"/>
+      <c r="K43" s="41"/>
       <c r="L43" s="39"/>
-      <c r="M43" s="37"/>
+      <c r="M43" s="41"/>
       <c r="N43" s="39"/>
-      <c r="O43" s="37"/>
+      <c r="O43" s="41"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="3"/>
     </row>
@@ -2307,19 +2286,19 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="38"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="38"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="38"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="40"/>
-      <c r="I44" s="38"/>
+      <c r="I44" s="42"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="38"/>
+      <c r="K44" s="42"/>
       <c r="L44" s="40"/>
-      <c r="M44" s="38"/>
+      <c r="M44" s="42"/>
       <c r="N44" s="40"/>
-      <c r="O44" s="38"/>
+      <c r="O44" s="42"/>
       <c r="P44" s="40"/>
       <c r="Q44" s="3"/>
     </row>
@@ -2328,20 +2307,20 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="43"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="50"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2349,19 +2328,19 @@
       <c r="B46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="44"/>
-      <c r="E46" s="42"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="44"/>
-      <c r="G46" s="42"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="44"/>
-      <c r="I46" s="42"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="44"/>
-      <c r="K46" s="42"/>
+      <c r="K46" s="35"/>
       <c r="L46" s="44"/>
-      <c r="M46" s="42"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="44"/>
-      <c r="O46" s="42"/>
+      <c r="O46" s="35"/>
       <c r="P46" s="44"/>
       <c r="Q46" s="3"/>
     </row>
@@ -2370,20 +2349,20 @@
       <c r="B47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="32"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="70"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2454,20 +2433,20 @@
       <c r="B51" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="43"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="50"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -2475,19 +2454,19 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="42"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="44"/>
-      <c r="E52" s="42"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="44"/>
-      <c r="G52" s="42"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="44"/>
-      <c r="I52" s="42"/>
+      <c r="I52" s="35"/>
       <c r="J52" s="44"/>
-      <c r="K52" s="42"/>
+      <c r="K52" s="35"/>
       <c r="L52" s="44"/>
-      <c r="M52" s="42"/>
+      <c r="M52" s="35"/>
       <c r="N52" s="44"/>
-      <c r="O52" s="42"/>
+      <c r="O52" s="35"/>
       <c r="P52" s="44"/>
       <c r="Q52" s="3"/>
     </row>
@@ -2496,38 +2475,38 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="37"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="39"/>
-      <c r="G53" s="37"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="37"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="39"/>
-      <c r="K53" s="37"/>
+      <c r="K53" s="41"/>
       <c r="L53" s="39"/>
-      <c r="M53" s="37"/>
+      <c r="M53" s="41"/>
       <c r="N53" s="39"/>
-      <c r="O53" s="37"/>
+      <c r="O53" s="41"/>
       <c r="P53" s="39"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="38"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="40"/>
-      <c r="E54" s="38"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="38"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="40"/>
-      <c r="I54" s="38"/>
+      <c r="I54" s="42"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="38"/>
+      <c r="K54" s="42"/>
       <c r="L54" s="40"/>
-      <c r="M54" s="38"/>
+      <c r="M54" s="42"/>
       <c r="N54" s="40"/>
-      <c r="O54" s="38"/>
+      <c r="O54" s="42"/>
       <c r="P54" s="40"/>
       <c r="Q54" s="3"/>
     </row>
@@ -2536,38 +2515,38 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="43"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="50"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="42"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="44"/>
-      <c r="E56" s="42"/>
+      <c r="E56" s="35"/>
       <c r="F56" s="44"/>
-      <c r="G56" s="42"/>
+      <c r="G56" s="35"/>
       <c r="H56" s="44"/>
-      <c r="I56" s="42"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="44"/>
-      <c r="K56" s="42"/>
+      <c r="K56" s="35"/>
       <c r="L56" s="44"/>
-      <c r="M56" s="42"/>
+      <c r="M56" s="35"/>
       <c r="N56" s="44"/>
-      <c r="O56" s="42"/>
+      <c r="O56" s="35"/>
       <c r="P56" s="44"/>
       <c r="Q56" s="3"/>
     </row>
@@ -2576,23 +2555,23 @@
       <c r="B57" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="56"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="63"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="23" t="s">
         <v>45</v>
@@ -2613,7 +2592,7 @@
       <c r="P58" s="27"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="23" t="s">
         <v>46</v>
@@ -2634,7 +2613,7 @@
       <c r="P59" s="27"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="23" t="s">
         <v>47</v>
@@ -2655,7 +2634,7 @@
       <c r="P60" s="27"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="23" t="s">
         <v>48</v>
@@ -2733,93 +2712,72 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="61" t="str">
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="51" t="str">
         <f>O2</f>
         <v>Week beginning
 Sat-00-Jan W-0</v>
       </c>
-      <c r="P65" s="62"/>
+      <c r="P65" s="52"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="64"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="54"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="47">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="47">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="47">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="48"/>
-      <c r="I67" s="47">
-        <f>I4</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="48"/>
-      <c r="K67" s="47">
-        <f>K4</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="48"/>
-      <c r="M67" s="47">
-        <f>M4</f>
-        <v>0</v>
-      </c>
-      <c r="N67" s="48"/>
-      <c r="O67" s="47">
-        <f>O4</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="48"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="33"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="66"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -2869,20 +2827,20 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="49"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="43"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2890,19 +2848,19 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="42"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="44"/>
-      <c r="E70" s="42"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="44"/>
-      <c r="G70" s="42"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="44"/>
-      <c r="I70" s="42"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="44"/>
-      <c r="K70" s="42"/>
+      <c r="K70" s="35"/>
       <c r="L70" s="44"/>
-      <c r="M70" s="42"/>
+      <c r="M70" s="35"/>
       <c r="N70" s="44"/>
-      <c r="O70" s="42"/>
+      <c r="O70" s="35"/>
       <c r="P70" s="44"/>
       <c r="Q70" s="3"/>
     </row>
@@ -2911,19 +2869,19 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="37"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="37"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="39"/>
-      <c r="G71" s="37"/>
+      <c r="G71" s="41"/>
       <c r="H71" s="39"/>
-      <c r="I71" s="37"/>
+      <c r="I71" s="41"/>
       <c r="J71" s="39"/>
-      <c r="K71" s="37"/>
+      <c r="K71" s="41"/>
       <c r="L71" s="39"/>
-      <c r="M71" s="37"/>
+      <c r="M71" s="41"/>
       <c r="N71" s="39"/>
-      <c r="O71" s="37"/>
+      <c r="O71" s="41"/>
       <c r="P71" s="39"/>
       <c r="Q71" s="3"/>
     </row>
@@ -2932,19 +2890,19 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="38"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="40"/>
-      <c r="E72" s="38"/>
+      <c r="E72" s="42"/>
       <c r="F72" s="40"/>
-      <c r="G72" s="38"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="40"/>
-      <c r="I72" s="38"/>
+      <c r="I72" s="42"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="38"/>
+      <c r="K72" s="42"/>
       <c r="L72" s="40"/>
-      <c r="M72" s="38"/>
+      <c r="M72" s="42"/>
       <c r="N72" s="40"/>
-      <c r="O72" s="38"/>
+      <c r="O72" s="42"/>
       <c r="P72" s="40"/>
       <c r="Q72" s="3"/>
     </row>
@@ -2953,20 +2911,20 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="43"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="50"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2974,19 +2932,19 @@
       <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="42"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="42"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="44"/>
-      <c r="G74" s="42"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="44"/>
-      <c r="I74" s="42"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="44"/>
-      <c r="K74" s="42"/>
+      <c r="K74" s="35"/>
       <c r="L74" s="44"/>
-      <c r="M74" s="42"/>
+      <c r="M74" s="35"/>
       <c r="N74" s="44"/>
-      <c r="O74" s="42"/>
+      <c r="O74" s="35"/>
       <c r="P74" s="44"/>
       <c r="Q74" s="3"/>
     </row>
@@ -2995,19 +2953,19 @@
       <c r="B75" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="37"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="37"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="39"/>
-      <c r="G75" s="37"/>
+      <c r="G75" s="41"/>
       <c r="H75" s="39"/>
-      <c r="I75" s="37"/>
+      <c r="I75" s="41"/>
       <c r="J75" s="39"/>
-      <c r="K75" s="37"/>
+      <c r="K75" s="41"/>
       <c r="L75" s="39"/>
-      <c r="M75" s="37"/>
+      <c r="M75" s="41"/>
       <c r="N75" s="39"/>
-      <c r="O75" s="37"/>
+      <c r="O75" s="41"/>
       <c r="P75" s="39"/>
       <c r="Q75" s="3"/>
     </row>
@@ -3016,19 +2974,19 @@
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="38"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="40"/>
-      <c r="E76" s="38"/>
+      <c r="E76" s="42"/>
       <c r="F76" s="40"/>
-      <c r="G76" s="38"/>
+      <c r="G76" s="42"/>
       <c r="H76" s="40"/>
-      <c r="I76" s="38"/>
+      <c r="I76" s="42"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="38"/>
+      <c r="K76" s="42"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="38"/>
+      <c r="M76" s="42"/>
       <c r="N76" s="40"/>
-      <c r="O76" s="38"/>
+      <c r="O76" s="42"/>
       <c r="P76" s="40"/>
       <c r="Q76" s="3"/>
     </row>
@@ -3037,20 +2995,20 @@
       <c r="B77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="43"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="50"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3058,19 +3016,19 @@
       <c r="B78" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="42"/>
+      <c r="C78" s="35"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="42"/>
+      <c r="E78" s="35"/>
       <c r="F78" s="44"/>
-      <c r="G78" s="42"/>
+      <c r="G78" s="35"/>
       <c r="H78" s="44"/>
-      <c r="I78" s="42"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="44"/>
-      <c r="K78" s="42"/>
+      <c r="K78" s="35"/>
       <c r="L78" s="44"/>
-      <c r="M78" s="42"/>
+      <c r="M78" s="35"/>
       <c r="N78" s="44"/>
-      <c r="O78" s="42"/>
+      <c r="O78" s="35"/>
       <c r="P78" s="44"/>
       <c r="Q78" s="3"/>
     </row>
@@ -3079,19 +3037,19 @@
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="37"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="37"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="39"/>
-      <c r="G79" s="37"/>
+      <c r="G79" s="41"/>
       <c r="H79" s="39"/>
-      <c r="I79" s="37"/>
+      <c r="I79" s="41"/>
       <c r="J79" s="39"/>
-      <c r="K79" s="37"/>
+      <c r="K79" s="41"/>
       <c r="L79" s="39"/>
-      <c r="M79" s="37"/>
+      <c r="M79" s="41"/>
       <c r="N79" s="39"/>
-      <c r="O79" s="37"/>
+      <c r="O79" s="41"/>
       <c r="P79" s="39"/>
       <c r="Q79" s="3"/>
     </row>
@@ -3100,172 +3058,172 @@
       <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="38"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="40"/>
-      <c r="E80" s="38"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="40"/>
-      <c r="G80" s="38"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="40"/>
-      <c r="I80" s="38"/>
+      <c r="I80" s="42"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="38"/>
+      <c r="K80" s="42"/>
       <c r="L80" s="40"/>
-      <c r="M80" s="38"/>
+      <c r="M80" s="42"/>
       <c r="N80" s="40"/>
-      <c r="O80" s="38"/>
+      <c r="O80" s="42"/>
       <c r="P80" s="40"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="43"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="50"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="42"/>
+      <c r="C82" s="35"/>
       <c r="D82" s="44"/>
-      <c r="E82" s="42"/>
+      <c r="E82" s="35"/>
       <c r="F82" s="44"/>
-      <c r="G82" s="42"/>
+      <c r="G82" s="35"/>
       <c r="H82" s="44"/>
-      <c r="I82" s="42"/>
+      <c r="I82" s="35"/>
       <c r="J82" s="44"/>
-      <c r="K82" s="42"/>
+      <c r="K82" s="35"/>
       <c r="L82" s="44"/>
-      <c r="M82" s="42"/>
+      <c r="M82" s="35"/>
       <c r="N82" s="44"/>
-      <c r="O82" s="42"/>
+      <c r="O82" s="35"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="37"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="37"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="39"/>
-      <c r="G83" s="37"/>
+      <c r="G83" s="41"/>
       <c r="H83" s="39"/>
-      <c r="I83" s="37"/>
+      <c r="I83" s="41"/>
       <c r="J83" s="39"/>
-      <c r="K83" s="37"/>
+      <c r="K83" s="41"/>
       <c r="L83" s="39"/>
-      <c r="M83" s="37"/>
+      <c r="M83" s="41"/>
       <c r="N83" s="39"/>
-      <c r="O83" s="37"/>
+      <c r="O83" s="41"/>
       <c r="P83" s="39"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="38"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="40"/>
-      <c r="E84" s="38"/>
+      <c r="E84" s="42"/>
       <c r="F84" s="40"/>
-      <c r="G84" s="38"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="40"/>
-      <c r="I84" s="38"/>
+      <c r="I84" s="42"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="38"/>
+      <c r="K84" s="42"/>
       <c r="L84" s="40"/>
-      <c r="M84" s="38"/>
+      <c r="M84" s="42"/>
       <c r="N84" s="40"/>
-      <c r="O84" s="38"/>
+      <c r="O84" s="42"/>
       <c r="P84" s="40"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="43"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="50"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="42"/>
+      <c r="C86" s="35"/>
       <c r="D86" s="44"/>
-      <c r="E86" s="42"/>
+      <c r="E86" s="35"/>
       <c r="F86" s="44"/>
-      <c r="G86" s="42"/>
+      <c r="G86" s="35"/>
       <c r="H86" s="44"/>
-      <c r="I86" s="42"/>
+      <c r="I86" s="35"/>
       <c r="J86" s="44"/>
-      <c r="K86" s="42"/>
+      <c r="K86" s="35"/>
       <c r="L86" s="44"/>
-      <c r="M86" s="42"/>
+      <c r="M86" s="35"/>
       <c r="N86" s="44"/>
-      <c r="O86" s="42"/>
+      <c r="O86" s="35"/>
       <c r="P86" s="44"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="37"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="37"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="39"/>
-      <c r="G87" s="37"/>
+      <c r="G87" s="41"/>
       <c r="H87" s="39"/>
-      <c r="I87" s="37"/>
+      <c r="I87" s="41"/>
       <c r="J87" s="39"/>
-      <c r="K87" s="37"/>
+      <c r="K87" s="41"/>
       <c r="L87" s="39"/>
-      <c r="M87" s="37"/>
+      <c r="M87" s="41"/>
       <c r="N87" s="39"/>
-      <c r="O87" s="37"/>
+      <c r="O87" s="41"/>
       <c r="P87" s="39"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="45"/>
-      <c r="P88" s="57"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="56"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3289,6 +3247,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C6:C7"/>
@@ -3313,434 +3699,6 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M67:N67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781D908-B7D0-40D6-9D09-799A24012BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2668CFB-F945-45BA-A0DF-09E94625CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,6 +807,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,11 +825,41 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -835,42 +871,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1318,8 +1318,8 @@
   </sheetPr>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35:P35"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,44 +1357,40 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="46" t="str">
-        <f>"Week beginning" &amp; CHAR(10) &amp; TEXT(C4,"ddd-dd-mmm") &amp; " W-" &amp; WEEKNUM(C4)</f>
-        <v>Week beginning
-Sat-00-Jan W-0</v>
-      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="48"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="3"/>
@@ -1951,20 +1947,20 @@
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2024,44 +2020,40 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="46" t="str">
-        <f>O2</f>
-        <v>Week beginning
-Sat-00-Jan W-0</v>
-      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="46"/>
       <c r="P33" s="47"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
       <c r="O34" s="48"/>
       <c r="P34" s="49"/>
       <c r="Q34" s="3"/>
@@ -2349,20 +2341,20 @@
       <c r="B47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="70"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="66"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2555,20 +2547,20 @@
       <c r="B57" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="63"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="59"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2712,46 +2704,42 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="51" t="str">
-        <f>O2</f>
-        <v>Week beginning
-Sat-00-Jan W-0</v>
-      </c>
-      <c r="P65" s="52"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="54"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="54"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="56"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3210,20 +3198,20 @@
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="56"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="52"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3270,6 +3258,7 @@
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B65:N66"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C71:C72"/>
@@ -3280,7 +3269,6 @@
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B65:N66"/>
     <mergeCell ref="C57:P57"/>
     <mergeCell ref="N28:N29"/>
     <mergeCell ref="M35:N35"/>
@@ -3299,6 +3287,15 @@
     <mergeCell ref="I71:I72"/>
     <mergeCell ref="J71:J72"/>
     <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="M16:M17"/>
@@ -3309,17 +3306,6 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -3423,21 +3409,6 @@
     <mergeCell ref="L75:L76"/>
     <mergeCell ref="M73:M74"/>
     <mergeCell ref="N73:N74"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
     <mergeCell ref="M71:M72"/>
     <mergeCell ref="N71:N72"/>
     <mergeCell ref="O65:P66"/>
@@ -3448,6 +3419,15 @@
     <mergeCell ref="I67:J67"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="P26:P27"/>
     <mergeCell ref="C28:C29"/>
@@ -3464,6 +3444,14 @@
     <mergeCell ref="P28:P29"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="P55:P56"/>
     <mergeCell ref="H51:H52"/>
     <mergeCell ref="I51:I52"/>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2668CFB-F945-45BA-A0DF-09E94625CAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C094E2-D156-4916-9A7A-6B13256D2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Group</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Pawel</t>
+  </si>
+  <si>
+    <t>Athletic Girls</t>
+  </si>
+  <si>
+    <t>Pre Academy Padel</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +283,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -655,11 +669,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -714,34 +897,109 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,128 +1008,80 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1319,24 +1529,24 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="8"/>
+    <col min="2" max="2" width="17.44140625" style="8"/>
     <col min="3" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="17.1796875" customWidth="1"/>
+    <col min="9" max="10" width="17.21875" customWidth="1"/>
     <col min="11" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="18" width="6.453125" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1355,70 +1565,70 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="36"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1463,507 +1673,507 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="43"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="44"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="31"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="39"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="40"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="50"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="44"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="39"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="40"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="50"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="44"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="31"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="39"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="40"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="50"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="44"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="31"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="39"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="40"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="50"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="44"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="31"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="39"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="40"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="50"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="44"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="31"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="39"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="40"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1982,7 +2192,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1999,7 +2209,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -2018,70 +2228,70 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="52"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="54"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="34"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
-      <c r="B36" s="38"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2126,528 +2336,532 @@
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="43"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="41"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="44"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="31"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="39"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="26"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="40"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="50"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="30"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="44"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="39"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="26"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="40"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="50"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="30"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="44"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="41"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="66"/>
+      <c r="C47" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="81"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="25"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="66"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="25"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="58"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="21"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="59"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="50"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="41"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="44"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="31"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="39"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="26"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="40"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="27"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="50"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="30"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="44"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="41"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="59"/>
+      <c r="C57" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="79"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="27"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="72"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="60"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="60"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="27"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="61"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
@@ -2666,7 +2880,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2683,7 +2897,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -2702,70 +2916,70 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="54"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="46"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="72"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="56"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="48"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="34"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
-      <c r="B68" s="38"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -2810,411 +3024,411 @@
       </c>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="43"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="41"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="44"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="31"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="39"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="26"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="40"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="27"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="50"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="30"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="44"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="31"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="39"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="26"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="40"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="27"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="50"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="30"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="44"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="31"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="39"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="26"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="40"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="27"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="50"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="30"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="44"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="31"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="39"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="26"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="40"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="27"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="45"/>
-      <c r="P85" s="50"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="30"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="44"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="31"/>
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="39"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="26"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="52"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="40"/>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="7"/>
       <c r="C89" s="3"/>
@@ -3235,6 +3449,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="M79:M80"/>
     <mergeCell ref="N79:N80"/>
@@ -3259,434 +3901,6 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M67:N67"/>
     <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C094E2-D156-4916-9A7A-6B13256D2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8DE6E-E16B-4898-A36C-78BC4F1B9119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,51 +897,180 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,141 +1082,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC04B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1130,10 +1137,53 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC04B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC04B4"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFBDDEE"/>
       <color rgb="FF981002"/>
@@ -1143,7 +1193,6 @@
       <color rgb="FFDEAEFC"/>
       <color rgb="FFCE85FB"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1529,7 +1578,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H17"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,68 +1616,68 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="46"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="56"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1678,20 +1727,20 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="53"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1699,20 +1748,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="54"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,20 +1769,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="26"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="49"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1741,20 +1790,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="27"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="50"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,20 +1811,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="30"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="60"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,20 +1832,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="31"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="54"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1804,20 +1853,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="26"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="49"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1825,20 +1874,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="27"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="50"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1846,20 +1895,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="30"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="60"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1867,20 +1916,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="31"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="54"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1888,20 +1937,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="26"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="49"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1909,20 +1958,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="27"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="50"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1930,20 +1979,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="30"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="60"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,20 +2000,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="31"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="54"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1972,20 +2021,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="26"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="49"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1993,20 +2042,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="27"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="50"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,20 +2063,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="30"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2035,20 +2084,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="31"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="54"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2056,20 +2105,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="26"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="49"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2077,20 +2126,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="27"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2098,20 +2147,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="30"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="60"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2119,58 +2168,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="31"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="54"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="26"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="49"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="40"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2230,68 +2279,68 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="54"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="59"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="34"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="43"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
-      <c r="B36" s="50"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2341,20 +2390,20 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="41"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="53"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2362,20 +2411,20 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="31"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="54"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,20 +2432,20 @@
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="26"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="49"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2404,20 +2453,20 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="27"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="50"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,20 +2474,20 @@
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="30"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2446,20 +2495,20 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="31"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="54"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,20 +2516,20 @@
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="26"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="49"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2488,20 +2537,20 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="27"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="50"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2509,127 +2558,127 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="30"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="60"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="41"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="53"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="81"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="75"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="66"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="29"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="58"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="21"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="59"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="22"/>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2637,20 +2686,20 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="41"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="53"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2658,20 +2707,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="31"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="54"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2679,39 +2728,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="26"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="49"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="27"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="50"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2719,146 +2768,146 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="30"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="60"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="41"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="53"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="79"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="69"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="75" t="s">
+      <c r="B58" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="72"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="35"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="60"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="23"/>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="60"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="23"/>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="74"/>
-      <c r="P61" s="61"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="24"/>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2918,68 +2967,68 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="46"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="64"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="48"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="66"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="34"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="43"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
-      <c r="B68" s="50"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3029,20 +3078,20 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="41"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="53"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3050,20 +3099,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="31"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="54"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3071,20 +3120,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="26"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="49"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3092,20 +3141,20 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="27"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="50"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3113,20 +3162,20 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="30"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="60"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3134,20 +3183,20 @@
       <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="31"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="54"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3155,20 +3204,20 @@
       <c r="B75" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="26"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="49"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3176,20 +3225,20 @@
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="27"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="50"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3197,20 +3246,20 @@
       <c r="B77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="30"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="60"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3218,20 +3267,20 @@
       <c r="B78" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="31"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="54"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3239,20 +3288,20 @@
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="26"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="49"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3260,172 +3309,172 @@
       <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="27"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="50"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="30"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="60"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="31"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="54"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="26"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="49"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="27"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="50"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="28"/>
-      <c r="P85" s="30"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="60"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="31"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="54"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="26"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="49"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="40"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="62"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="62"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3449,6 +3498,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C6:C7"/>
@@ -3473,456 +3950,30 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B65:N66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Training Camp">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Training Camp">
       <formula>NOT(ISERROR(SEARCH("Training Camp",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Khalifa Stadium">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Recovery Center">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Recovery Center">
       <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Al Rayyan SC">
-      <formula>NOT(ISERROR(SEARCH("Al Rayyan SC",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Physiology Lab">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Physiology Lab">
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Blue Ice">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:N1048576">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Competition">
+      <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8DE6E-E16B-4898-A36C-78BC4F1B9119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8873075E-FB00-48F7-93C8-EB824D91B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -957,137 +957,137 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1098,42 +1098,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1578,24 +1543,24 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="8"/>
+    <col min="2" max="2" width="17.453125" style="8"/>
     <col min="3" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="17.21875" customWidth="1"/>
+    <col min="9" max="10" width="17.1796875" customWidth="1"/>
     <col min="11" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="18" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1614,70 +1579,70 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="46"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1722,507 +1687,507 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="53"/>
-      <c r="E6" s="44"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="53"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="53"/>
-      <c r="K6" s="44"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="53"/>
-      <c r="O6" s="44"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="54"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="49"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="60"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="50"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="54"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="49"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="46"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="50"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="60"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="50"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="54"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="49"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="46"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="60"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="50"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="54"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="49"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="50"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="47"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="60"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="50"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="54"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="51"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="49"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="50"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="47"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="60"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="50"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="54"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="51"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="49"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="46"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="62"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="64"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -2241,7 +2206,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2258,7 +2223,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -2277,70 +2242,70 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="43"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="56"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="48"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2385,240 +2350,240 @@
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="44"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="44"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="44"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="53"/>
-      <c r="I37" s="44"/>
+      <c r="I37" s="52"/>
       <c r="J37" s="53"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="52"/>
       <c r="L37" s="53"/>
-      <c r="M37" s="44"/>
+      <c r="M37" s="52"/>
       <c r="N37" s="53"/>
-      <c r="O37" s="44"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="53"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="54"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="51"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="49"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="46"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="50"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="47"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="60"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="50"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="54"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="51"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="49"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="46"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="50"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="47"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="60"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="50"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="44"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="44"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="53"/>
-      <c r="I46" s="44"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="53"/>
-      <c r="K46" s="44"/>
+      <c r="K46" s="52"/>
       <c r="L46" s="53"/>
-      <c r="M46" s="44"/>
+      <c r="M46" s="52"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="44"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="53"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="75"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="68"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="26" t="s">
         <v>42</v>
@@ -2639,7 +2604,7 @@
       <c r="P48" s="29"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="26" t="s">
         <v>43</v>
@@ -2660,7 +2625,7 @@
       <c r="P49" s="21"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="27" t="s">
         <v>44</v>
@@ -2681,152 +2646,152 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="44"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="53"/>
-      <c r="E51" s="44"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="53"/>
-      <c r="G51" s="44"/>
+      <c r="G51" s="52"/>
       <c r="H51" s="53"/>
-      <c r="I51" s="44"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="53"/>
-      <c r="K51" s="44"/>
+      <c r="K51" s="52"/>
       <c r="L51" s="53"/>
-      <c r="M51" s="44"/>
+      <c r="M51" s="52"/>
       <c r="N51" s="53"/>
-      <c r="O51" s="44"/>
+      <c r="O51" s="52"/>
       <c r="P51" s="53"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="54"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="51"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="49"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="46"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="50"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="47"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="60"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="50"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="44"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="53"/>
-      <c r="E56" s="44"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="53"/>
-      <c r="G56" s="44"/>
+      <c r="G56" s="52"/>
       <c r="H56" s="53"/>
-      <c r="I56" s="44"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="53"/>
-      <c r="K56" s="44"/>
+      <c r="K56" s="52"/>
       <c r="L56" s="53"/>
-      <c r="M56" s="44"/>
+      <c r="M56" s="52"/>
       <c r="N56" s="53"/>
-      <c r="O56" s="44"/>
+      <c r="O56" s="52"/>
       <c r="P56" s="53"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="69"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="63"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="38" t="s">
         <v>45</v>
@@ -2847,7 +2812,7 @@
       <c r="P58" s="35"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="32" t="s">
         <v>46</v>
@@ -2868,7 +2833,7 @@
       <c r="P59" s="23"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="32" t="s">
         <v>47</v>
@@ -2889,7 +2854,7 @@
       <c r="P60" s="23"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="33" t="s">
         <v>48</v>
@@ -2910,7 +2875,7 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
@@ -2929,7 +2894,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2946,7 +2911,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -2965,70 +2930,70 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="64"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="71"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="81"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="66"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="73"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="43"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="56"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="48"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3073,411 +3038,411 @@
       </c>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="44"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="53"/>
-      <c r="E69" s="44"/>
+      <c r="E69" s="52"/>
       <c r="F69" s="53"/>
-      <c r="G69" s="44"/>
+      <c r="G69" s="52"/>
       <c r="H69" s="53"/>
-      <c r="I69" s="44"/>
+      <c r="I69" s="52"/>
       <c r="J69" s="53"/>
-      <c r="K69" s="44"/>
+      <c r="K69" s="52"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="44"/>
+      <c r="M69" s="52"/>
       <c r="N69" s="53"/>
-      <c r="O69" s="44"/>
+      <c r="O69" s="52"/>
       <c r="P69" s="53"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="54"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="51"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="49"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="46"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="50"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="47"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="60"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="50"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="54"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="51"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="51"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="49"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="46"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="50"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="47"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="60"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="60"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="50"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="54"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="51"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="49"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="46"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="52"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="50"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="47"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="60"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="50"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="45"/>
-      <c r="P82" s="54"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="51"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="49"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="46"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="50"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="45"/>
+      <c r="P84" s="47"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="60"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="50"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="45"/>
-      <c r="P86" s="54"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="51"/>
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="51"/>
-      <c r="P87" s="49"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="46"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="62"/>
-      <c r="O88" s="61"/>
-      <c r="P88" s="62"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="64"/>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="7"/>
       <c r="C89" s="3"/>
@@ -3498,6 +3463,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="M79:M80"/>
     <mergeCell ref="N79:N80"/>
@@ -3522,458 +3915,33 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M67:N67"/>
     <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:N1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Competition">
+      <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Al Rayyan">
+      <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Training Camp">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Training Camp">
       <formula>NOT(ISERROR(SEARCH("Training Camp",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Khalifa Stadium">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Recovery Center">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Recovery Center">
       <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Physiology Lab">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Physiology Lab">
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Blue Ice">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Competition">
-      <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0" footer="0"/>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8873075E-FB00-48F7-93C8-EB824D91B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CAAFBB-589F-4AE2-BD8D-5FA37E4F0610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,57 +957,120 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,96 +1082,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC04B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC04B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1141,6 +1120,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC04B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1581,68 +1574,68 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="69"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="46"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1692,19 +1685,19 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="53"/>
-      <c r="E6" s="52"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="53"/>
-      <c r="I6" s="52"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="53"/>
-      <c r="K6" s="52"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="53"/>
-      <c r="O6" s="52"/>
+      <c r="O6" s="44"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="3"/>
     </row>
@@ -1713,20 +1706,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="51"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="54"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1734,20 +1727,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="46"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="49"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1755,20 +1748,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="47"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="50"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1776,20 +1769,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="50"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="60"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1797,20 +1790,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="51"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="54"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1818,20 +1811,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="46"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="49"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1839,20 +1832,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="47"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="50"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1860,20 +1853,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="50"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="60"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1881,20 +1874,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="51"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="54"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1902,20 +1895,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="46"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="49"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1923,20 +1916,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="47"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="50"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1944,20 +1937,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="50"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="60"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1965,20 +1958,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="51"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="54"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1986,20 +1979,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="46"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="49"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2007,20 +2000,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="47"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="50"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2028,20 +2021,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="50"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2049,20 +2042,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="51"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="54"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2070,20 +2063,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="46"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="49"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2091,20 +2084,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="47"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2112,20 +2105,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="50"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="60"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2133,58 +2126,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="51"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="54"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="46"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="49"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="64"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2244,68 +2237,68 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="59"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="43"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="75"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2355,19 +2348,19 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="52"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="52"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="53"/>
-      <c r="I37" s="52"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="53"/>
-      <c r="K37" s="52"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="53"/>
-      <c r="M37" s="52"/>
+      <c r="M37" s="44"/>
       <c r="N37" s="53"/>
-      <c r="O37" s="52"/>
+      <c r="O37" s="44"/>
       <c r="P37" s="53"/>
       <c r="Q37" s="3"/>
     </row>
@@ -2376,20 +2369,20 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="51"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="54"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -2397,20 +2390,20 @@
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="46"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="49"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2418,20 +2411,20 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="47"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="50"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2439,20 +2432,20 @@
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="50"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2460,20 +2453,20 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="51"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="54"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2481,20 +2474,20 @@
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="46"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="49"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2502,20 +2495,20 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="47"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="50"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2523,20 +2516,20 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="50"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="60"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2544,19 +2537,19 @@
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="52"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="52"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="52"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="53"/>
-      <c r="I46" s="52"/>
+      <c r="I46" s="44"/>
       <c r="J46" s="53"/>
-      <c r="K46" s="52"/>
+      <c r="K46" s="44"/>
       <c r="L46" s="53"/>
-      <c r="M46" s="52"/>
+      <c r="M46" s="44"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="52"/>
+      <c r="O46" s="44"/>
       <c r="P46" s="53"/>
       <c r="Q46" s="3"/>
     </row>
@@ -2565,22 +2558,22 @@
       <c r="B47" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="68"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="75"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2651,19 +2644,19 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="52"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="53"/>
-      <c r="E51" s="52"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="53"/>
-      <c r="G51" s="52"/>
+      <c r="G51" s="44"/>
       <c r="H51" s="53"/>
-      <c r="I51" s="52"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="53"/>
-      <c r="K51" s="52"/>
+      <c r="K51" s="44"/>
       <c r="L51" s="53"/>
-      <c r="M51" s="52"/>
+      <c r="M51" s="44"/>
       <c r="N51" s="53"/>
-      <c r="O51" s="52"/>
+      <c r="O51" s="44"/>
       <c r="P51" s="53"/>
       <c r="Q51" s="3"/>
     </row>
@@ -2672,20 +2665,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="51"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="54"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2693,39 +2686,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="46"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="49"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="47"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="50"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2733,38 +2726,38 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="50"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="60"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="52"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="53"/>
-      <c r="E56" s="52"/>
+      <c r="E56" s="44"/>
       <c r="F56" s="53"/>
-      <c r="G56" s="52"/>
+      <c r="G56" s="44"/>
       <c r="H56" s="53"/>
-      <c r="I56" s="52"/>
+      <c r="I56" s="44"/>
       <c r="J56" s="53"/>
-      <c r="K56" s="52"/>
+      <c r="K56" s="44"/>
       <c r="L56" s="53"/>
-      <c r="M56" s="52"/>
+      <c r="M56" s="44"/>
       <c r="N56" s="53"/>
-      <c r="O56" s="52"/>
+      <c r="O56" s="44"/>
       <c r="P56" s="53"/>
       <c r="Q56" s="3"/>
     </row>
@@ -2773,22 +2766,22 @@
       <c r="B57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="63"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="69"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2932,68 +2925,68 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="71"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="64"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="72"/>
-      <c r="P66" s="73"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="66"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="56"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="43"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="75"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3043,19 +3036,19 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="52"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="53"/>
-      <c r="E69" s="52"/>
+      <c r="E69" s="44"/>
       <c r="F69" s="53"/>
-      <c r="G69" s="52"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="53"/>
-      <c r="I69" s="52"/>
+      <c r="I69" s="44"/>
       <c r="J69" s="53"/>
-      <c r="K69" s="52"/>
+      <c r="K69" s="44"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="52"/>
+      <c r="M69" s="44"/>
       <c r="N69" s="53"/>
-      <c r="O69" s="52"/>
+      <c r="O69" s="44"/>
       <c r="P69" s="53"/>
       <c r="Q69" s="3"/>
     </row>
@@ -3064,20 +3057,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="51"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="54"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3085,20 +3078,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="46"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="49"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3106,20 +3099,20 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="47"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="50"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3127,20 +3120,20 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="50"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="60"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3148,20 +3141,20 @@
       <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="51"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="51"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="51"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="54"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3169,20 +3162,20 @@
       <c r="B75" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="46"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="49"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3190,20 +3183,20 @@
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="47"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="50"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3211,20 +3204,20 @@
       <c r="B77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="48"/>
-      <c r="P77" s="50"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="60"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3232,20 +3225,20 @@
       <c r="B78" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="51"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="54"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3253,20 +3246,20 @@
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="46"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="49"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3274,172 +3267,172 @@
       <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="45"/>
-      <c r="P80" s="47"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="50"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="50"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="60"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="51"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="51"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="54"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="46"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="49"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="45"/>
-      <c r="P84" s="47"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="50"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="48"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="48"/>
-      <c r="P85" s="50"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="60"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="51"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="54"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="46"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="49"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="64"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="64"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="64"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="62"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="62"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3463,6 +3456,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C6:C7"/>
@@ -3487,460 +3908,32 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B65:N66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Competition">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Al Rayyan">
+      <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Competition">
       <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Al Rayyan">
-      <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Training Camp">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Training Camp">
       <formula>NOT(ISERROR(SEARCH("Training Camp",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Khalifa Stadium">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Recovery Center">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Recovery Center">
       <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Physiology Lab">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Physiology Lab">
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="Blue Ice">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CAAFBB-589F-4AE2-BD8D-5FA37E4F0610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C180B4F2-B2D9-48DD-8E04-CC59B76CE55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,137 +957,137 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1126,7 +1126,61 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCC04B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB0049C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1141,6 +1195,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB0049C"/>
       <color rgb="FFCC04B4"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFBDDEE"/>
@@ -1150,7 +1205,6 @@
       <color rgb="FFF391C9"/>
       <color rgb="FFDEAEFC"/>
       <color rgb="FFCE85FB"/>
-      <color rgb="FF00CC00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1574,68 +1628,68 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="46"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1685,19 +1739,19 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="53"/>
-      <c r="E6" s="44"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="53"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="53"/>
-      <c r="K6" s="44"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="53"/>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="53"/>
-      <c r="O6" s="44"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="3"/>
     </row>
@@ -1706,20 +1760,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="54"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1727,20 +1781,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="49"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1748,20 +1802,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1769,20 +1823,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="60"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="50"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1790,20 +1844,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="54"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1811,20 +1865,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="49"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="46"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1832,20 +1886,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="50"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1853,20 +1907,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="60"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="50"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1874,20 +1928,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="54"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1895,20 +1949,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="49"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="46"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1916,20 +1970,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1937,20 +1991,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="60"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="50"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1958,20 +2012,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="54"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1979,20 +2033,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="49"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2000,20 +2054,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="50"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="47"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2021,20 +2075,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="60"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="50"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2042,20 +2096,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="54"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="51"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2063,20 +2117,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="49"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2084,20 +2138,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="50"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="47"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2105,20 +2159,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="60"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="50"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2126,58 +2180,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="54"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="51"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="49"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="46"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="62"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="64"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2237,68 +2291,68 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="43"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="56"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="48"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2348,19 +2402,19 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="44"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="44"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="44"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="53"/>
-      <c r="I37" s="44"/>
+      <c r="I37" s="52"/>
       <c r="J37" s="53"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="52"/>
       <c r="L37" s="53"/>
-      <c r="M37" s="44"/>
+      <c r="M37" s="52"/>
       <c r="N37" s="53"/>
-      <c r="O37" s="44"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="53"/>
       <c r="Q37" s="3"/>
     </row>
@@ -2369,20 +2423,20 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="54"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="51"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -2390,20 +2444,20 @@
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="49"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="46"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2411,20 +2465,20 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="50"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="47"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2432,20 +2486,20 @@
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="60"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="50"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2453,20 +2507,20 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="54"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="51"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2474,20 +2528,20 @@
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="49"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="46"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2495,20 +2549,20 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="50"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="47"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2516,20 +2570,20 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="60"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="50"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2537,19 +2591,19 @@
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="44"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="44"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="53"/>
-      <c r="I46" s="44"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="53"/>
-      <c r="K46" s="44"/>
+      <c r="K46" s="52"/>
       <c r="L46" s="53"/>
-      <c r="M46" s="44"/>
+      <c r="M46" s="52"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="44"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="53"/>
       <c r="Q46" s="3"/>
     </row>
@@ -2558,22 +2612,22 @@
       <c r="B47" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="75"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="68"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2644,19 +2698,19 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="44"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="53"/>
-      <c r="E51" s="44"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="53"/>
-      <c r="G51" s="44"/>
+      <c r="G51" s="52"/>
       <c r="H51" s="53"/>
-      <c r="I51" s="44"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="53"/>
-      <c r="K51" s="44"/>
+      <c r="K51" s="52"/>
       <c r="L51" s="53"/>
-      <c r="M51" s="44"/>
+      <c r="M51" s="52"/>
       <c r="N51" s="53"/>
-      <c r="O51" s="44"/>
+      <c r="O51" s="52"/>
       <c r="P51" s="53"/>
       <c r="Q51" s="3"/>
     </row>
@@ -2665,20 +2719,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="54"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="51"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2686,39 +2740,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="49"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="46"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="50"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="47"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2726,38 +2780,38 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="60"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="50"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="44"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="53"/>
-      <c r="E56" s="44"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="53"/>
-      <c r="G56" s="44"/>
+      <c r="G56" s="52"/>
       <c r="H56" s="53"/>
-      <c r="I56" s="44"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="53"/>
-      <c r="K56" s="44"/>
+      <c r="K56" s="52"/>
       <c r="L56" s="53"/>
-      <c r="M56" s="44"/>
+      <c r="M56" s="52"/>
       <c r="N56" s="53"/>
-      <c r="O56" s="44"/>
+      <c r="O56" s="52"/>
       <c r="P56" s="53"/>
       <c r="Q56" s="3"/>
     </row>
@@ -2766,22 +2820,22 @@
       <c r="B57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="69"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="63"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2925,68 +2979,68 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="79"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="64"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="71"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="81"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="66"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="73"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="43"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="56"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="48"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3036,19 +3090,19 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="44"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="53"/>
-      <c r="E69" s="44"/>
+      <c r="E69" s="52"/>
       <c r="F69" s="53"/>
-      <c r="G69" s="44"/>
+      <c r="G69" s="52"/>
       <c r="H69" s="53"/>
-      <c r="I69" s="44"/>
+      <c r="I69" s="52"/>
       <c r="J69" s="53"/>
-      <c r="K69" s="44"/>
+      <c r="K69" s="52"/>
       <c r="L69" s="53"/>
-      <c r="M69" s="44"/>
+      <c r="M69" s="52"/>
       <c r="N69" s="53"/>
-      <c r="O69" s="44"/>
+      <c r="O69" s="52"/>
       <c r="P69" s="53"/>
       <c r="Q69" s="3"/>
     </row>
@@ -3057,20 +3111,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="54"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="51"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3078,20 +3132,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="49"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="46"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3099,20 +3153,20 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="50"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="47"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3120,20 +3174,20 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="60"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="50"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3141,20 +3195,20 @@
       <c r="B74" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="54"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="51"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3162,20 +3216,20 @@
       <c r="B75" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="51"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="49"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="46"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3183,20 +3237,20 @@
       <c r="B76" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="50"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="47"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3204,20 +3258,20 @@
       <c r="B77" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="60"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="60"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="50"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3225,20 +3279,20 @@
       <c r="B78" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="54"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="51"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3246,20 +3300,20 @@
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="49"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="46"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3267,172 +3321,172 @@
       <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="52"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="50"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="47"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="60"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="50"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="45"/>
-      <c r="P82" s="54"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="51"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="49"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="46"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="50"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="45"/>
+      <c r="P84" s="47"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="60"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="50"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="45"/>
-      <c r="P86" s="54"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="51"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="51"/>
-      <c r="P87" s="49"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="46"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="62"/>
-      <c r="O88" s="61"/>
-      <c r="P88" s="62"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="64"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3456,6 +3510,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="M79:M80"/>
     <mergeCell ref="N79:N80"/>
@@ -3480,460 +3962,32 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M67:N67"/>
     <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Al Rayyan">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Competition">
+      <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Al Rayyan">
       <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Competition">
-      <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Training Camp">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Training Camp">
       <formula>NOT(ISERROR(SEARCH("Training Camp",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Khalifa Stadium">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Recovery Center">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Recovery Center">
       <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Physiology Lab">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Physiology Lab">
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Blue Ice">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C180B4F2-B2D9-48DD-8E04-CC59B76CE55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30B9DE-BCAB-49FD-AFCB-4F3B281DC662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Group</t>
   </si>
@@ -167,18 +167,6 @@
     <t>Kurt Kourto</t>
   </si>
   <si>
-    <t>Pre-Acad Padel</t>
-  </si>
-  <si>
-    <t>Explorers</t>
-  </si>
-  <si>
-    <t>Explorers +</t>
-  </si>
-  <si>
-    <t>Starters</t>
-  </si>
-  <si>
     <t>Kids</t>
   </si>
   <si>
@@ -209,10 +197,19 @@
     <t>Pawel</t>
   </si>
   <si>
-    <t>Athletic Girls</t>
-  </si>
-  <si>
-    <t>Pre Academy Padel</t>
+    <t>Pre Academy Programmes</t>
+  </si>
+  <si>
+    <t>Pre-Academy Padel Explorers</t>
+  </si>
+  <si>
+    <t>Pre-Academy Padel Explorers +</t>
+  </si>
+  <si>
+    <t>Pre-Academy Padel Starters</t>
+  </si>
+  <si>
+    <t>Girl Programme</t>
   </si>
 </sst>
 </file>
@@ -222,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +292,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF99FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,7 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4CEE2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -906,12 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -933,155 +937,164 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,13 +1144,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC04B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1146,6 +1152,17 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFB0049C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1180,14 +1197,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF99FF"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFB0049C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1195,16 +1217,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE4CEE2"/>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFB0049C"/>
       <color rgb="FFCC04B4"/>
-      <color rgb="FFFF99FF"/>
       <color rgb="FFFBDDEE"/>
       <color rgb="FF981002"/>
       <color rgb="FFFFF4D5"/>
       <color rgb="FF7963FD"/>
       <color rgb="FFF391C9"/>
       <color rgb="FFDEAEFC"/>
-      <color rgb="FFCE85FB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1590,7 +1612,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="B2" sqref="B2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1628,68 +1650,68 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="69"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1739,20 +1761,20 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1760,20 +1782,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="51"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1781,20 +1803,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="46"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1802,20 +1824,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1823,19 +1845,19 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="50"/>
-      <c r="E10" s="48"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="50"/>
-      <c r="G10" s="48"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="50"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="50"/>
-      <c r="K10" s="48"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="50"/>
-      <c r="M10" s="48"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="50"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="50"/>
       <c r="Q10" s="3"/>
     </row>
@@ -1844,20 +1866,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="51"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="44"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1865,20 +1887,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="46"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="39"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1886,20 +1908,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="47"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="40"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1907,19 +1929,19 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="48"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="50"/>
-      <c r="G14" s="48"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="48"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="48"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="50"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="50"/>
       <c r="Q14" s="3"/>
     </row>
@@ -1928,20 +1950,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="51"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1949,20 +1971,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="39"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1970,20 +1992,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="40"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1991,19 +2013,19 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="50"/>
-      <c r="E18" s="48"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="50"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="50"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="48"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="48"/>
+      <c r="M18" s="45"/>
       <c r="N18" s="50"/>
-      <c r="O18" s="48"/>
+      <c r="O18" s="45"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="3"/>
     </row>
@@ -2012,20 +2034,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="51"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2033,20 +2055,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="46"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="39"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2054,20 +2076,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="47"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="40"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2075,19 +2097,19 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="50"/>
-      <c r="E22" s="48"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="50"/>
-      <c r="G22" s="48"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="50"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="48"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="50"/>
-      <c r="M22" s="48"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="50"/>
-      <c r="O22" s="48"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="3"/>
     </row>
@@ -2096,20 +2118,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="51"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="44"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2117,20 +2139,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="46"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="39"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2138,20 +2160,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="47"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="40"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2159,19 +2181,19 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="50"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="50"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="50"/>
-      <c r="I26" s="48"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="50"/>
-      <c r="K26" s="48"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="50"/>
-      <c r="M26" s="48"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="50"/>
-      <c r="O26" s="48"/>
+      <c r="O26" s="45"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="3"/>
     </row>
@@ -2180,58 +2202,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="51"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="46"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="39"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="64"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2291,68 +2313,68 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="75"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2402,20 +2424,20 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="43"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2423,20 +2445,20 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="51"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="44"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -2444,20 +2466,20 @@
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="46"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="39"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2465,20 +2487,20 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="47"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="40"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2486,19 +2508,19 @@
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="50"/>
-      <c r="E41" s="48"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="50"/>
-      <c r="G41" s="48"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="50"/>
-      <c r="I41" s="48"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="50"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="50"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="45"/>
       <c r="N41" s="50"/>
-      <c r="O41" s="48"/>
+      <c r="O41" s="45"/>
       <c r="P41" s="50"/>
       <c r="Q41" s="3"/>
     </row>
@@ -2507,20 +2529,20 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="51"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="44"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2528,20 +2550,20 @@
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="46"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="39"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2549,20 +2571,20 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="47"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="40"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2570,19 +2592,19 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="50"/>
-      <c r="E45" s="48"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="50"/>
-      <c r="G45" s="48"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="50"/>
-      <c r="I45" s="48"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="50"/>
-      <c r="K45" s="48"/>
+      <c r="K45" s="45"/>
       <c r="L45" s="50"/>
-      <c r="M45" s="48"/>
+      <c r="M45" s="45"/>
       <c r="N45" s="50"/>
-      <c r="O45" s="48"/>
+      <c r="O45" s="45"/>
       <c r="P45" s="50"/>
       <c r="Q45" s="3"/>
     </row>
@@ -2591,105 +2613,103 @@
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="53"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="43"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
-      <c r="B47" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="68"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="62"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="29"/>
+      <c r="B48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="30"/>
+      <c r="B49" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="28"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="30"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="30"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="21"/>
-      <c r="K49" s="30"/>
+      <c r="K49" s="28"/>
       <c r="L49" s="21"/>
-      <c r="M49" s="30"/>
+      <c r="M49" s="28"/>
       <c r="N49" s="21"/>
-      <c r="O49" s="30"/>
+      <c r="O49" s="28"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
-      <c r="B50" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="31"/>
+      <c r="B50" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="29"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="31"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="22"/>
-      <c r="I50" s="31"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="31"/>
+      <c r="K50" s="29"/>
       <c r="L50" s="22"/>
-      <c r="M50" s="31"/>
+      <c r="M50" s="29"/>
       <c r="N50" s="22"/>
-      <c r="O50" s="31"/>
+      <c r="O50" s="29"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="3"/>
     </row>
@@ -2698,20 +2718,20 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="43"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -2719,20 +2739,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="51"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="44"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2740,39 +2760,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="46"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="39"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="47"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="40"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2780,146 +2800,146 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="48"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="50"/>
-      <c r="E55" s="48"/>
+      <c r="E55" s="45"/>
       <c r="F55" s="50"/>
-      <c r="G55" s="48"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="50"/>
-      <c r="I55" s="48"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="50"/>
-      <c r="K55" s="48"/>
+      <c r="K55" s="45"/>
       <c r="L55" s="50"/>
-      <c r="M55" s="48"/>
+      <c r="M55" s="45"/>
       <c r="N55" s="50"/>
-      <c r="O55" s="48"/>
+      <c r="O55" s="45"/>
       <c r="P55" s="50"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="53"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="43"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="63"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="71"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="35"/>
+      <c r="B58" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="74"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="75"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
-      <c r="B59" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="23"/>
+      <c r="B59" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="79"/>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="23"/>
+      <c r="B60" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="79"/>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
-      <c r="B61" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="24"/>
+      <c r="B61" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="81"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="82"/>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2979,68 +2999,68 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="71"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="54"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="72"/>
-      <c r="P66" s="73"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="56"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="56"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="33"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="75"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3090,20 +3110,20 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="53"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="43"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3111,20 +3131,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="51"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="44"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3132,20 +3152,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="46"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="39"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3153,20 +3173,20 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="47"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="40"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3174,125 +3194,125 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="48"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="50"/>
-      <c r="E73" s="48"/>
+      <c r="E73" s="45"/>
       <c r="F73" s="50"/>
-      <c r="G73" s="48"/>
+      <c r="G73" s="45"/>
       <c r="H73" s="50"/>
-      <c r="I73" s="48"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="50"/>
-      <c r="K73" s="48"/>
+      <c r="K73" s="45"/>
       <c r="L73" s="50"/>
-      <c r="M73" s="48"/>
+      <c r="M73" s="45"/>
       <c r="N73" s="50"/>
-      <c r="O73" s="48"/>
+      <c r="O73" s="45"/>
       <c r="P73" s="50"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="51"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="51"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="51"/>
+        <v>45</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="44"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="C75" s="41"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="39"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="47"/>
+        <v>46</v>
+      </c>
+      <c r="C76" s="42"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="40"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="48"/>
+        <v>48</v>
+      </c>
+      <c r="C77" s="45"/>
       <c r="D77" s="50"/>
-      <c r="E77" s="48"/>
+      <c r="E77" s="45"/>
       <c r="F77" s="50"/>
-      <c r="G77" s="48"/>
+      <c r="G77" s="45"/>
       <c r="H77" s="50"/>
-      <c r="I77" s="48"/>
+      <c r="I77" s="45"/>
       <c r="J77" s="50"/>
-      <c r="K77" s="48"/>
+      <c r="K77" s="45"/>
       <c r="L77" s="50"/>
-      <c r="M77" s="48"/>
+      <c r="M77" s="45"/>
       <c r="N77" s="50"/>
-      <c r="O77" s="48"/>
+      <c r="O77" s="45"/>
       <c r="P77" s="50"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="51"/>
+        <v>49</v>
+      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="44"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3300,193 +3320,193 @@
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="46"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="39"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="45"/>
-      <c r="P80" s="47"/>
+        <v>50</v>
+      </c>
+      <c r="C80" s="42"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="40"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="48"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="50"/>
-      <c r="E81" s="48"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="50"/>
-      <c r="G81" s="48"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="50"/>
-      <c r="I81" s="48"/>
+      <c r="I81" s="45"/>
       <c r="J81" s="50"/>
-      <c r="K81" s="48"/>
+      <c r="K81" s="45"/>
       <c r="L81" s="50"/>
-      <c r="M81" s="48"/>
+      <c r="M81" s="45"/>
       <c r="N81" s="50"/>
-      <c r="O81" s="48"/>
+      <c r="O81" s="45"/>
       <c r="P81" s="50"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="51"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="51"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="44"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="46"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="39"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="45"/>
-      <c r="P84" s="47"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="40"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="48"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="50"/>
-      <c r="E85" s="48"/>
+      <c r="E85" s="45"/>
       <c r="F85" s="50"/>
-      <c r="G85" s="48"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="50"/>
-      <c r="I85" s="48"/>
+      <c r="I85" s="45"/>
       <c r="J85" s="50"/>
-      <c r="K85" s="48"/>
+      <c r="K85" s="45"/>
       <c r="L85" s="50"/>
-      <c r="M85" s="48"/>
+      <c r="M85" s="45"/>
       <c r="N85" s="50"/>
-      <c r="O85" s="48"/>
+      <c r="O85" s="45"/>
       <c r="P85" s="50"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="51"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="44"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="46"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="39"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="64"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="64"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="64"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="52"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3510,6 +3530,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C6:C7"/>
@@ -3534,447 +3982,19 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B65:N66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Competition">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Competition">
       <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Al Rayyan">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Al Rayyan">
       <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Training Camp">
-      <formula>NOT(ISERROR(SEARCH("Training Camp",C1)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="TRAINING CAMP">
+      <formula>NOT(ISERROR(SEARCH("TRAINING CAMP",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30B9DE-BCAB-49FD-AFCB-4F3B281DC662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3979777C-9DEA-4E6B-82A2-265B820CD71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,164 +937,164 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,6 +1130,10 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF99FF"/>
@@ -1162,7 +1166,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF99FF"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1217,6 +1221,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFF9999"/>
       <color rgb="FFE4CEE2"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFB0049C"/>
@@ -1225,8 +1231,6 @@
       <color rgb="FF981002"/>
       <color rgb="FFFFF4D5"/>
       <color rgb="FF7963FD"/>
-      <color rgb="FFF391C9"/>
-      <color rgb="FFDEAEFC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1611,7 +1615,7 @@
   </sheetPr>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N3"/>
     </sheetView>
   </sheetViews>
@@ -1650,68 +1654,68 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="78"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="36"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="70"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1761,20 +1765,20 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="43"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1782,20 +1786,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1803,20 +1807,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="39"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1824,20 +1828,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="40"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="48"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1845,20 +1849,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="51"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1866,20 +1870,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="44"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1887,20 +1891,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="39"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="47"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1908,20 +1912,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="40"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="48"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1929,20 +1933,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="51"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1950,20 +1954,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="44"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="52"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1971,20 +1975,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="39"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1992,20 +1996,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="40"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2013,20 +2017,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="51"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2034,20 +2038,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="44"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2055,20 +2059,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="39"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="47"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2076,20 +2080,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="40"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="48"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2097,20 +2101,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2118,20 +2122,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="44"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2139,20 +2143,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="39"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="47"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2160,20 +2164,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="40"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2181,20 +2185,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="51"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2202,58 +2206,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="44"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="52"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="39"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="47"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2313,68 +2317,68 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="78"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="38"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2424,20 +2428,20 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="43"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="54"/>
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2445,20 +2449,20 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="44"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="52"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -2466,20 +2470,20 @@
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="39"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="47"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2487,20 +2491,20 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="40"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="48"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2508,20 +2512,20 @@
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="50"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="51"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2529,20 +2533,20 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="44"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="52"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2550,20 +2554,20 @@
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="39"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="47"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2571,20 +2575,20 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="40"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="48"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2592,20 +2596,20 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="50"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="51"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2613,41 +2617,41 @@
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="43"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="54"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="62"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="69"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2718,20 +2722,20 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="43"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="54"/>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -2739,20 +2743,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="44"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="52"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2760,39 +2764,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="39"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="47"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="40"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="48"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2800,146 +2804,146 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="50"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="51"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="43"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="54"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="71"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="64"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="75"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="33"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="79"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="37"/>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="79"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="37"/>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
-      <c r="B61" s="80" t="s">
+      <c r="B61" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="81"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="82"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="40"/>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2999,68 +3003,68 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="54"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="72"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="56"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="74"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="33"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="57"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="38"/>
+      <c r="B68" s="76"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3110,20 +3114,20 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="43"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="54"/>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3131,20 +3135,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="44"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="52"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3152,20 +3156,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="39"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="47"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3173,20 +3177,20 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="40"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="48"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3194,20 +3198,20 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="50"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="51"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3215,20 +3219,20 @@
       <c r="B74" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="44"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="52"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3236,20 +3240,20 @@
       <c r="B75" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="39"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="47"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3257,20 +3261,20 @@
       <c r="B76" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="40"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="48"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3278,20 +3282,20 @@
       <c r="B77" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="50"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="51"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3299,20 +3303,20 @@
       <c r="B78" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="44"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="52"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3320,20 +3324,20 @@
       <c r="B79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="39"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="47"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3341,172 +3345,172 @@
       <c r="B80" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="40"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="48"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="50"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="51"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="44"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="52"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="39"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="47"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="40"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="48"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="45"/>
-      <c r="P85" s="50"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="51"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="44"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="52"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="39"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="47"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="52"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="65"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3530,6 +3534,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="M79:M80"/>
     <mergeCell ref="N79:N80"/>
@@ -3554,434 +3986,6 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M67:N67"/>
     <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3979777C-9DEA-4E6B-82A2-265B820CD71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAB202-5A84-4BA3-995A-F0A15F4DC255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="960" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Group</t>
   </si>
@@ -185,18 +185,9 @@
     <t>Kamal</t>
   </si>
   <si>
-    <t>Throws 1</t>
-  </si>
-  <si>
-    <t>Throws 2</t>
-  </si>
-  <si>
     <t>Kristof</t>
   </si>
   <si>
-    <t>Pawel</t>
-  </si>
-  <si>
     <t>Pre Academy Programmes</t>
   </si>
   <si>
@@ -210,6 +201,15 @@
   </si>
   <si>
     <t>Girl Programme</t>
+  </si>
+  <si>
+    <t>Throws - Discus</t>
+  </si>
+  <si>
+    <t>Throws - Hammer</t>
+  </si>
+  <si>
+    <t>Throws - Javelin</t>
   </si>
 </sst>
 </file>
@@ -970,57 +970,120 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,75 +1095,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1136,65 +1136,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB0049C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1615,8 +1557,8 @@
   </sheetPr>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1654,68 +1596,68 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="70"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="47"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="82"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1765,19 +1707,19 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="53"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="53"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="54"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="45"/>
       <c r="P6" s="54"/>
       <c r="Q6" s="3"/>
     </row>
@@ -1786,20 +1728,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="52"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1807,20 +1749,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="47"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1828,20 +1770,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="48"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1849,20 +1791,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="51"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="61"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1870,20 +1812,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1891,20 +1833,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="47"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="50"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1912,20 +1854,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="48"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1933,20 +1875,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="51"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="61"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1954,20 +1896,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="52"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="55"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1975,20 +1917,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1996,20 +1938,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="51"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2017,20 +1959,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="51"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="61"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2038,20 +1980,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="52"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="55"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2059,20 +2001,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="47"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="50"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2080,20 +2022,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="48"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2101,20 +2043,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="51"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="61"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2122,20 +2064,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="52"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="55"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2143,20 +2085,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="47"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="50"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2164,20 +2106,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="48"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2185,20 +2127,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="51"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="61"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2206,58 +2148,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="52"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="47"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="50"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2317,68 +2259,68 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="78"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="44"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="76"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2428,19 +2370,19 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="54"/>
-      <c r="E37" s="53"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="53"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="54"/>
-      <c r="I37" s="53"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="54"/>
-      <c r="K37" s="53"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="53"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="54"/>
-      <c r="O37" s="53"/>
+      <c r="O37" s="45"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="3"/>
     </row>
@@ -2449,20 +2391,20 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="52"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="55"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -2470,20 +2412,20 @@
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="47"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="50"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2491,20 +2433,20 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="48"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="51"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2512,20 +2454,20 @@
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="51"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="61"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2533,20 +2475,20 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="52"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="55"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2554,20 +2496,20 @@
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="47"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="50"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2575,20 +2517,20 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="48"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="51"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2596,20 +2538,20 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="51"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="61"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2617,47 +2559,47 @@
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="54"/>
-      <c r="E46" s="53"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="53"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="54"/>
-      <c r="I46" s="53"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="53"/>
+      <c r="K46" s="45"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="53"/>
+      <c r="M46" s="45"/>
       <c r="N46" s="54"/>
-      <c r="O46" s="53"/>
+      <c r="O46" s="45"/>
       <c r="P46" s="54"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="69"/>
+      <c r="C47" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="76"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
@@ -2678,7 +2620,7 @@
     <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="21"/>
@@ -2699,7 +2641,7 @@
     <row r="50" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="22"/>
@@ -2722,19 +2664,19 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="54"/>
-      <c r="E51" s="53"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="54"/>
-      <c r="G51" s="53"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="54"/>
-      <c r="I51" s="53"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="54"/>
-      <c r="K51" s="53"/>
+      <c r="K51" s="45"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="53"/>
+      <c r="M51" s="45"/>
       <c r="N51" s="54"/>
-      <c r="O51" s="53"/>
+      <c r="O51" s="45"/>
       <c r="P51" s="54"/>
       <c r="Q51" s="3"/>
     </row>
@@ -2743,20 +2685,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="52"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="55"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2764,39 +2706,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="47"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="50"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="48"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="51"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2804,38 +2746,38 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="51"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="61"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="53"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="54"/>
-      <c r="E56" s="53"/>
+      <c r="E56" s="45"/>
       <c r="F56" s="54"/>
-      <c r="G56" s="53"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="54"/>
-      <c r="I56" s="53"/>
+      <c r="I56" s="45"/>
       <c r="J56" s="54"/>
-      <c r="K56" s="53"/>
+      <c r="K56" s="45"/>
       <c r="L56" s="54"/>
-      <c r="M56" s="53"/>
+      <c r="M56" s="45"/>
       <c r="N56" s="54"/>
-      <c r="O56" s="53"/>
+      <c r="O56" s="45"/>
       <c r="P56" s="54"/>
       <c r="Q56" s="3"/>
     </row>
@@ -2844,22 +2786,22 @@
       <c r="B57" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="64"/>
+      <c r="C57" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="70"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3003,68 +2945,68 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="72"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="65"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="73"/>
-      <c r="P66" s="74"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="67"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="44"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="76"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3114,19 +3056,19 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="53"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="54"/>
-      <c r="E69" s="53"/>
+      <c r="E69" s="45"/>
       <c r="F69" s="54"/>
-      <c r="G69" s="53"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="54"/>
-      <c r="I69" s="53"/>
+      <c r="I69" s="45"/>
       <c r="J69" s="54"/>
-      <c r="K69" s="53"/>
+      <c r="K69" s="45"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="53"/>
+      <c r="M69" s="45"/>
       <c r="N69" s="54"/>
-      <c r="O69" s="53"/>
+      <c r="O69" s="45"/>
       <c r="P69" s="54"/>
       <c r="Q69" s="3"/>
     </row>
@@ -3135,20 +3077,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="52"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="55"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3156,20 +3098,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="45"/>
-      <c r="P71" s="47"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="50"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3177,20 +3119,20 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="46"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="48"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="51"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3198,20 +3140,20 @@
       <c r="B73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="51"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="61"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3219,41 +3161,41 @@
       <c r="B74" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="52"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="55"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="45"/>
-      <c r="P75" s="47"/>
+        <v>53</v>
+      </c>
+      <c r="C75" s="52"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="50"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3261,256 +3203,254 @@
       <c r="B76" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="48"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="51"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="51"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="51"/>
+        <v>54</v>
+      </c>
+      <c r="C77" s="56"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="61"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="52"/>
+        <v>47</v>
+      </c>
+      <c r="C78" s="46"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="55"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="45"/>
-      <c r="P79" s="47"/>
+        <v>55</v>
+      </c>
+      <c r="C79" s="52"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="52"/>
+      <c r="P79" s="50"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
-      <c r="B80" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="48"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="53"/>
+      <c r="P80" s="51"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="51"/>
-      <c r="O81" s="49"/>
-      <c r="P81" s="51"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="61"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="52"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="55"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="45"/>
-      <c r="P83" s="47"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="52"/>
+      <c r="P83" s="50"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="48"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="48"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="51"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="51"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="51"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="51"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="61"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="52"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="52"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="55"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="45"/>
-      <c r="P87" s="47"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="52"/>
+      <c r="P87" s="50"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="65"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="62"/>
+      <c r="P88" s="63"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3534,6 +3474,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C6:C7"/>
@@ -3558,460 +3926,32 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B65:N66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Competition">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Competition">
       <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Al Rayyan">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Al Rayyan">
       <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="TRAINING CAMP">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRAINING CAMP">
       <formula>NOT(ISERROR(SEARCH("TRAINING CAMP",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Khalifa Stadium">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Recovery Center">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Recovery Center">
       <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Physiology Lab">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Physiology Lab">
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Blue Ice">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEAB202-5A84-4BA3-995A-F0A15F4DC255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DAA994-F209-4CD5-AE3A-6754A251EDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>Group</t>
   </si>
@@ -182,12 +182,6 @@
     <t>Linus Thornblad</t>
   </si>
   <si>
-    <t>Kamal</t>
-  </si>
-  <si>
-    <t>Kristof</t>
-  </si>
-  <si>
     <t>Pre Academy Programmes</t>
   </si>
   <si>
@@ -210,6 +204,27 @@
   </si>
   <si>
     <t>Throws - Javelin</t>
+  </si>
+  <si>
+    <t>Kaida</t>
+  </si>
+  <si>
+    <t>Kemal</t>
+  </si>
+  <si>
+    <t>Kristozw</t>
+  </si>
+  <si>
+    <t>Rafal</t>
+  </si>
+  <si>
+    <t>Samuel Francis</t>
+  </si>
+  <si>
+    <t>Driss Alsousi</t>
+  </si>
+  <si>
+    <t>Abdulkader Kada</t>
   </si>
 </sst>
 </file>
@@ -970,137 +985,253 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB0049C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB0049C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1557,8 +1688,8 @@
   </sheetPr>
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79:D80"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,68 +1727,68 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="78"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="47"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="70"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1707,19 +1838,19 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="45"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="54"/>
-      <c r="I6" s="45"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="54"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="45"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="54"/>
       <c r="Q6" s="3"/>
     </row>
@@ -1728,20 +1859,20 @@
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="55"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="52"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1749,20 +1880,20 @@
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="50"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1770,20 +1901,20 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="48"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1791,20 +1922,20 @@
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="61"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="51"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1812,20 +1943,20 @@
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="55"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="52"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1833,20 +1964,20 @@
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="50"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="47"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1854,20 +1985,20 @@
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="51"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="48"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1875,20 +2006,20 @@
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="61"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="51"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1896,20 +2027,20 @@
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="55"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="52"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1917,20 +2048,20 @@
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="50"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1938,20 +2069,20 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="51"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1959,20 +2090,20 @@
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="61"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="51"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1980,20 +2111,20 @@
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="55"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2001,20 +2132,20 @@
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="50"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="47"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2022,20 +2153,20 @@
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="51"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="48"/>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2043,20 +2174,20 @@
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="61"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2064,20 +2195,20 @@
       <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="55"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2085,20 +2216,20 @@
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="50"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="47"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2106,20 +2237,20 @@
       <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="51"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2127,20 +2258,20 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="61"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="51"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2148,58 +2279,58 @@
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="55"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="52"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="50"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="47"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2259,68 +2390,68 @@
     </row>
     <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="78"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="44"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="49"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -2370,19 +2501,19 @@
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="45"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="54"/>
-      <c r="E37" s="45"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="45"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="54"/>
-      <c r="I37" s="45"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="54"/>
-      <c r="K37" s="45"/>
+      <c r="K37" s="53"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="45"/>
+      <c r="M37" s="53"/>
       <c r="N37" s="54"/>
-      <c r="O37" s="45"/>
+      <c r="O37" s="53"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="3"/>
     </row>
@@ -2391,20 +2522,20 @@
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="55"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="52"/>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -2412,20 +2543,20 @@
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="50"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="47"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2433,20 +2564,20 @@
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="51"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="48"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2454,20 +2585,20 @@
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="61"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="51"/>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2475,20 +2606,20 @@
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="55"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="52"/>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2496,20 +2627,20 @@
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="50"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="47"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2517,20 +2648,20 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="51"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="48"/>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2538,20 +2669,20 @@
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="61"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="51"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2559,47 +2690,47 @@
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="45"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="54"/>
-      <c r="E46" s="45"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="45"/>
+      <c r="G46" s="53"/>
       <c r="H46" s="54"/>
-      <c r="I46" s="45"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="45"/>
+      <c r="K46" s="53"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="45"/>
+      <c r="M46" s="53"/>
       <c r="N46" s="54"/>
-      <c r="O46" s="45"/>
+      <c r="O46" s="53"/>
       <c r="P46" s="54"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="76"/>
+      <c r="C47" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="69"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
@@ -2620,7 +2751,7 @@
     <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="21"/>
@@ -2641,7 +2772,7 @@
     <row r="50" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="22"/>
@@ -2664,19 +2795,19 @@
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="54"/>
-      <c r="E51" s="45"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="54"/>
-      <c r="G51" s="45"/>
+      <c r="G51" s="53"/>
       <c r="H51" s="54"/>
-      <c r="I51" s="45"/>
+      <c r="I51" s="53"/>
       <c r="J51" s="54"/>
-      <c r="K51" s="45"/>
+      <c r="K51" s="53"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="45"/>
+      <c r="M51" s="53"/>
       <c r="N51" s="54"/>
-      <c r="O51" s="45"/>
+      <c r="O51" s="53"/>
       <c r="P51" s="54"/>
       <c r="Q51" s="3"/>
     </row>
@@ -2685,20 +2816,20 @@
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="55"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="52"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2706,39 +2837,39 @@
       <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="50"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="47"/>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="51"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="48"/>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2746,38 +2877,38 @@
       <c r="B55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="61"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="51"/>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="45"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="54"/>
-      <c r="E56" s="45"/>
+      <c r="E56" s="53"/>
       <c r="F56" s="54"/>
-      <c r="G56" s="45"/>
+      <c r="G56" s="53"/>
       <c r="H56" s="54"/>
-      <c r="I56" s="45"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="54"/>
-      <c r="K56" s="45"/>
+      <c r="K56" s="53"/>
       <c r="L56" s="54"/>
-      <c r="M56" s="45"/>
+      <c r="M56" s="53"/>
       <c r="N56" s="54"/>
-      <c r="O56" s="45"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="54"/>
       <c r="Q56" s="3"/>
     </row>
@@ -2786,22 +2917,22 @@
       <c r="B57" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="70"/>
+      <c r="C57" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="64"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2945,68 +3076,68 @@
     </row>
     <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="65"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="72"/>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="67"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="74"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="44"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="57"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="76"/>
       <c r="C68" s="18" t="s">
         <v>32</v>
       </c>
@@ -3056,19 +3187,19 @@
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="45"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="54"/>
-      <c r="E69" s="45"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="54"/>
-      <c r="G69" s="45"/>
+      <c r="G69" s="53"/>
       <c r="H69" s="54"/>
-      <c r="I69" s="45"/>
+      <c r="I69" s="53"/>
       <c r="J69" s="54"/>
-      <c r="K69" s="45"/>
+      <c r="K69" s="53"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="45"/>
+      <c r="M69" s="53"/>
       <c r="N69" s="54"/>
-      <c r="O69" s="45"/>
+      <c r="O69" s="53"/>
       <c r="P69" s="54"/>
       <c r="Q69" s="3"/>
     </row>
@@ -3077,20 +3208,20 @@
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="55"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="52"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3098,20 +3229,20 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="50"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="47"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3119,338 +3250,356 @@
       <c r="B72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="51"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="48"/>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="C73" s="49"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="51"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
-      <c r="B74" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="55"/>
+      <c r="B74" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="50"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="52"/>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="47"/>
       <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="51"/>
+        <v>58</v>
+      </c>
+      <c r="C76" s="46"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="48"/>
       <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="61"/>
+        <v>4</v>
+      </c>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="51"/>
       <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
-      <c r="B78" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="55"/>
+      <c r="B78" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="50"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="52"/>
       <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="52"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="47"/>
       <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="51"/>
+      <c r="B80" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="46"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="48"/>
       <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="61"/>
+      <c r="B81" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="49"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="51"/>
       <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="55"/>
+      <c r="B82" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="50"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="52"/>
       <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="50"/>
+      <c r="B83" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="45"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="47"/>
       <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="51"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="51"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="51"/>
+      <c r="B84" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="46"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="48"/>
       <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="61"/>
+      <c r="B85" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="49"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="51"/>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="55"/>
+      <c r="B86" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="50"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="52"/>
       <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="50"/>
+      <c r="B87" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="45"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="47"/>
       <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="62"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="62"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="62"/>
-      <c r="P88" s="63"/>
+      <c r="B88" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="55"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="65"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3474,6 +3623,434 @@
     </row>
   </sheetData>
   <mergeCells count="452">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="M79:M80"/>
     <mergeCell ref="N79:N80"/>
@@ -3498,460 +4075,32 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M67:N67"/>
     <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Competition">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Competition">
       <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Al Rayyan">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Al Rayyan">
       <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="TRAINING CAMP">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="TRAINING CAMP">
       <formula>NOT(ISERROR(SEARCH("TRAINING CAMP",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Khalifa Stadium">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Recovery Center">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Recovery Center">
       <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Physiology Lab">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Physiology Lab">
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Blue Ice">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DAA994-F209-4CD5-AE3A-6754A251EDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC63B860-1036-4CF5-966A-CC60E25BBF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>Group</t>
   </si>
@@ -133,12 +133,6 @@
     <t>Steve Fudge</t>
   </si>
   <si>
-    <t>4 - 6pm</t>
-  </si>
-  <si>
-    <t>10am - 12pm</t>
-  </si>
-  <si>
     <t>Abd'raoof Alamir</t>
   </si>
   <si>
@@ -225,6 +219,24 @@
   </si>
   <si>
     <t>Abdulkader Kada</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Yasmani</t>
+  </si>
+  <si>
+    <t>Khamis</t>
+  </si>
+  <si>
+    <t>Decathlon</t>
+  </si>
+  <si>
+    <t>Pawel</t>
   </si>
 </sst>
 </file>
@@ -867,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -985,57 +997,120 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1048,190 +1123,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB0049C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB0049C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1686,27 +1585,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106:F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="8"/>
+    <col min="2" max="2" width="17.44140625" style="8"/>
     <col min="3" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="17.1796875" customWidth="1"/>
+    <col min="9" max="10" width="17.21875" customWidth="1"/>
     <col min="11" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="18" width="6.453125" customWidth="1"/>
+    <col min="18" max="18" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1725,615 +1624,615 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78"/>
+      <c r="B2" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="70"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="47"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="82"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="54"/>
-      <c r="E6" s="53"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="53"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="54"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="45"/>
       <c r="P6" s="54"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="52"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="47"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="48"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="51"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="61"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="52"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="47"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="50"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="48"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="51"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="61"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="52"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="55"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="51"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="51"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="61"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="52"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="55"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="47"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="50"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="48"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="51"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="61"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="52"/>
+        <v>34</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="55"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="47"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="50"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="51"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="61"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="52"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="47"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="50"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -2352,7 +2251,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2369,7 +2268,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -2388,349 +2287,349 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="78"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="80"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="44"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
-      <c r="B36" s="76"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="54"/>
-      <c r="E37" s="53"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="53"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="54"/>
-      <c r="I37" s="53"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="54"/>
-      <c r="K37" s="53"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="54"/>
-      <c r="M37" s="53"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="54"/>
-      <c r="O37" s="53"/>
+      <c r="O37" s="45"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="52"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="55"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="47"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="50"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="48"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="51"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="51"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="61"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="52"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="55"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="47"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="50"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="48"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="51"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="51"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="61"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="54"/>
-      <c r="E46" s="53"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="54"/>
-      <c r="G46" s="53"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="54"/>
-      <c r="I46" s="53"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="53"/>
+      <c r="K46" s="45"/>
       <c r="L46" s="54"/>
-      <c r="M46" s="53"/>
+      <c r="M46" s="45"/>
       <c r="N46" s="54"/>
-      <c r="O46" s="53"/>
+      <c r="O46" s="45"/>
       <c r="P46" s="54"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="69"/>
+      <c r="C47" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="76"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
@@ -2748,10 +2647,10 @@
       <c r="P48" s="27"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="21"/>
@@ -2769,10 +2668,10 @@
       <c r="P49" s="21"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="22"/>
@@ -2790,155 +2689,155 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="54"/>
-      <c r="E51" s="53"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="54"/>
-      <c r="G51" s="53"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="54"/>
-      <c r="I51" s="53"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="54"/>
-      <c r="K51" s="53"/>
+      <c r="K51" s="45"/>
       <c r="L51" s="54"/>
-      <c r="M51" s="53"/>
+      <c r="M51" s="45"/>
       <c r="N51" s="54"/>
-      <c r="O51" s="53"/>
+      <c r="O51" s="45"/>
       <c r="P51" s="54"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="52"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="55"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="47"/>
+        <v>32</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="50"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="48"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="51"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="51"/>
+        <v>33</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="61"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="53"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="54"/>
-      <c r="E56" s="53"/>
+      <c r="E56" s="45"/>
       <c r="F56" s="54"/>
-      <c r="G56" s="53"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="54"/>
-      <c r="I56" s="53"/>
+      <c r="I56" s="45"/>
       <c r="J56" s="54"/>
-      <c r="K56" s="53"/>
+      <c r="K56" s="45"/>
       <c r="L56" s="54"/>
-      <c r="M56" s="53"/>
+      <c r="M56" s="45"/>
       <c r="N56" s="54"/>
-      <c r="O56" s="53"/>
+      <c r="O56" s="45"/>
       <c r="P56" s="54"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="64"/>
+      <c r="C57" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="70"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="32"/>
       <c r="D58" s="33"/>
@@ -2956,10 +2855,10 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="37"/>
@@ -2977,10 +2876,10 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="37"/>
@@ -2998,10 +2897,10 @@
       <c r="P60" s="37"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="40"/>
@@ -3019,7 +2918,7 @@
       <c r="P61" s="40"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
@@ -3038,7 +2937,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3055,7 +2954,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -3074,535 +2973,529 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="72"/>
+      <c r="B65" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="65"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="73"/>
-      <c r="P66" s="74"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="67"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="44"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
-      <c r="B68" s="76"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="53"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="54"/>
-      <c r="E69" s="53"/>
+      <c r="E69" s="45"/>
       <c r="F69" s="54"/>
-      <c r="G69" s="53"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="54"/>
-      <c r="I69" s="53"/>
+      <c r="I69" s="45"/>
       <c r="J69" s="54"/>
-      <c r="K69" s="53"/>
+      <c r="K69" s="45"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="53"/>
+      <c r="M69" s="45"/>
       <c r="N69" s="54"/>
-      <c r="O69" s="53"/>
+      <c r="O69" s="45"/>
       <c r="P69" s="54"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="52"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="55"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="45"/>
-      <c r="P71" s="47"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="50"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="46"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="48"/>
+        <v>38</v>
+      </c>
+      <c r="C72" s="53"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="51"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="51"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="61"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="52"/>
+        <v>55</v>
+      </c>
+      <c r="C74" s="46"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="55"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="45"/>
-      <c r="P75" s="47"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="50"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="48"/>
+        <v>56</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="51"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="49"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="51"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="51"/>
+      <c r="B77" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="56"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="61"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="52"/>
+        <v>61</v>
+      </c>
+      <c r="C78" s="46"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="55"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="45"/>
-      <c r="P79" s="47"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="52"/>
+      <c r="P79" s="50"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="48"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="53"/>
+      <c r="P80" s="51"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="51"/>
-      <c r="O81" s="49"/>
-      <c r="P81" s="51"/>
+        <v>4</v>
+      </c>
+      <c r="C81" s="56"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="61"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="52"/>
+      <c r="B82" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="46"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="55"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="45"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="45"/>
-      <c r="P83" s="47"/>
+        <v>4</v>
+      </c>
+      <c r="C83" s="52"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="52"/>
+      <c r="P83" s="50"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="48"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="51"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="51"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="51"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="51"/>
+        <v>4</v>
+      </c>
+      <c r="C85" s="56"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="61"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="52"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="52"/>
+        <v>62</v>
+      </c>
+      <c r="C86" s="46"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="55"/>
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="45"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="45"/>
-      <c r="P87" s="47"/>
+        <v>63</v>
+      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="52"/>
+      <c r="P87" s="50"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
-      <c r="B88" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="65"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="62"/>
+      <c r="P88" s="63"/>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="7"/>
       <c r="C89" s="3"/>
@@ -3621,8 +3514,1149 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
+    <row r="90" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="80"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="80"/>
+      <c r="O92" s="64"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="82"/>
+      <c r="L93" s="82"/>
+      <c r="M93" s="82"/>
+      <c r="N93" s="82"/>
+      <c r="O93" s="66"/>
+      <c r="P93" s="67"/>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="43"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P95" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="45"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="54"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="54"/>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="46"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="55"/>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="52"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="52"/>
+      <c r="P98" s="50"/>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="53"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="53"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="53"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="56"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="55"/>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="52"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="52"/>
+      <c r="P102" s="50"/>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="53"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="53"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="53"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="53"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="56"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="56"/>
+      <c r="N104" s="61"/>
+      <c r="O104" s="56"/>
+      <c r="P104" s="61"/>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="55"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="46"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="52"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="50"/>
+      <c r="O106" s="52"/>
+      <c r="P106" s="50"/>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="53"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="53"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="53"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="56"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="55"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="55"/>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="50"/>
+      <c r="O110" s="52"/>
+      <c r="P110" s="50"/>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="53"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="53"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="53"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="56"/>
+      <c r="P112" s="61"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="55"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="52"/>
+      <c r="N114" s="50"/>
+      <c r="O114" s="52"/>
+      <c r="P114" s="50"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="63"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="63"/>
+      <c r="O115" s="62"/>
+      <c r="P115" s="63"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="1:17" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="602">
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="N112:N113"/>
+    <mergeCell ref="O112:O113"/>
+    <mergeCell ref="P112:P113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="N114:N115"/>
+    <mergeCell ref="O114:O115"/>
+    <mergeCell ref="P114:P115"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="N108:N109"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="P108:P109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="P110:P111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="P106:P107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="B92:N93"/>
+    <mergeCell ref="O92:P93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C6:C7"/>
@@ -3647,460 +4681,32 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B65:N66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Competition">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Competition">
       <formula>NOT(ISERROR(SEARCH("Competition",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Al Rayyan">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Al Rayyan">
       <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="TRAINING CAMP">
+  <conditionalFormatting sqref="C47 C48:P56 C57 C1:P46 C58:P1048576">
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="TRAINING CAMP">
       <formula>NOT(ISERROR(SEARCH("TRAINING CAMP",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Khalifa Stadium">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Khalifa Stadium">
       <formula>NOT(ISERROR(SEARCH("Khalifa Stadium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Recovery Center">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="Recovery Center">
       <formula>NOT(ISERROR(SEARCH("Recovery Center",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Physiology Lab">
+    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="Physiology Lab">
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Blue Ice">
+  <conditionalFormatting sqref="C47 C48:Q56 C57 Q47 Q57 C1:Q46 C58:Q1048576">
+    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel_template.xlsx
+++ b/Excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth.McMillan\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Operations_timetable_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC63B860-1036-4CF5-966A-CC60E25BBF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C57CB-C586-422A-AFE4-5132718F4842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
 Weekly Training Plan - QAF GROUPS</t>
   </si>
   <si>
-    <t>Kurt Kourto</t>
-  </si>
-  <si>
     <t>Kids</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Pawel</t>
+  </si>
+  <si>
+    <t>Kurt Couto</t>
   </si>
 </sst>
 </file>
@@ -997,134 +997,134 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,25 +1587,25 @@
   </sheetPr>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106:F107"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="8"/>
+    <col min="2" max="2" width="17.453125" style="8"/>
     <col min="3" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="17.21875" customWidth="1"/>
+    <col min="9" max="10" width="17.1796875" customWidth="1"/>
     <col min="11" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" customWidth="1"/>
-    <col min="18" max="18" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3"/>
@@ -1624,615 +1624,615 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="47"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="E5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="G5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="I5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="K5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="M5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="O5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="54"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="55"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="48"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="51"/>
-      <c r="E9" s="53"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="51"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="51"/>
-      <c r="K9" s="53"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="51"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="51"/>
-      <c r="O9" s="53"/>
+      <c r="O9" s="50"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="61"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="42"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="55"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="43"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="50"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="48"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="51"/>
-      <c r="G13" s="53"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="51"/>
-      <c r="K13" s="53"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="51"/>
-      <c r="M13" s="53"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="51"/>
-      <c r="O13" s="53"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="61"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="55"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="43"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="50"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="48"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="53"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="51"/>
-      <c r="G17" s="53"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="53"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="51"/>
-      <c r="K17" s="53"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="51"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="51"/>
-      <c r="O17" s="53"/>
+      <c r="O17" s="50"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="61"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="55"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="50"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="51"/>
-      <c r="E21" s="53"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="51"/>
-      <c r="G21" s="53"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="53"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="51"/>
-      <c r="K21" s="53"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="51"/>
-      <c r="M21" s="53"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="53"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="61"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="55"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="43"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="50"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="51"/>
-      <c r="G25" s="53"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="53"/>
+      <c r="I25" s="50"/>
       <c r="J25" s="51"/>
-      <c r="K25" s="53"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="51"/>
-      <c r="M25" s="53"/>
+      <c r="M25" s="50"/>
       <c r="N25" s="51"/>
-      <c r="O25" s="53"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="51"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="61"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="42"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="55"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="43"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="50"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="48"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="49"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -2251,7 +2251,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2268,7 +2268,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -2287,329 +2287,329 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="79"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="81"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="44"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
-      <c r="B36" s="49"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="E36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="G36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="I36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="K36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="M36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="O36" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P36" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="54"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="52"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="55"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="43"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="50"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="48"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="51"/>
-      <c r="E40" s="53"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="51"/>
-      <c r="G40" s="53"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="51"/>
-      <c r="I40" s="53"/>
+      <c r="I40" s="50"/>
       <c r="J40" s="51"/>
-      <c r="K40" s="53"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="51"/>
-      <c r="M40" s="53"/>
+      <c r="M40" s="50"/>
       <c r="N40" s="51"/>
-      <c r="O40" s="53"/>
+      <c r="O40" s="50"/>
       <c r="P40" s="51"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="61"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="42"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="55"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="43"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="50"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="48"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="51"/>
-      <c r="E44" s="53"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="51"/>
-      <c r="G44" s="53"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="51"/>
-      <c r="I44" s="53"/>
+      <c r="I44" s="50"/>
       <c r="J44" s="51"/>
-      <c r="K44" s="53"/>
+      <c r="K44" s="50"/>
       <c r="L44" s="51"/>
-      <c r="M44" s="53"/>
+      <c r="M44" s="50"/>
       <c r="N44" s="51"/>
-      <c r="O44" s="53"/>
+      <c r="O44" s="50"/>
       <c r="P44" s="51"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="61"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="42"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="54"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="52"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="23"/>
       <c r="C47" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="75"/>
       <c r="E47" s="75"/>
@@ -2626,10 +2626,10 @@
       <c r="P47" s="76"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27"/>
@@ -2647,10 +2647,10 @@
       <c r="P48" s="27"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="21"/>
@@ -2668,10 +2668,10 @@
       <c r="P49" s="21"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="22"/>
@@ -2689,155 +2689,155 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="54"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="52"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="55"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="43"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="50"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="48"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="53"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="51"/>
-      <c r="E54" s="53"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="51"/>
-      <c r="G54" s="53"/>
+      <c r="G54" s="50"/>
       <c r="H54" s="51"/>
-      <c r="I54" s="53"/>
+      <c r="I54" s="50"/>
       <c r="J54" s="51"/>
-      <c r="K54" s="53"/>
+      <c r="K54" s="50"/>
       <c r="L54" s="51"/>
-      <c r="M54" s="53"/>
+      <c r="M54" s="50"/>
       <c r="N54" s="51"/>
-      <c r="O54" s="53"/>
+      <c r="O54" s="50"/>
       <c r="P54" s="51"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="61"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="42"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="54"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="52"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="1:17" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="70"/>
+      <c r="C57" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="72"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="32"/>
       <c r="D58" s="33"/>
@@ -2855,10 +2855,10 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="37"/>
@@ -2876,10 +2876,10 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="37"/>
@@ -2897,10 +2897,10 @@
       <c r="P60" s="37"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="54.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="40"/>
@@ -2918,7 +2918,7 @@
       <c r="P61" s="40"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
@@ -2937,7 +2937,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2954,7 +2954,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -2973,529 +2973,529 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="65"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="59"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="67"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="60"/>
+      <c r="P66" s="61"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="44"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="65"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="E68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="G68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="I68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="K68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="M68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N68" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="O68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P68" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="54"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="52"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="55"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="43"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="50"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="48"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="53"/>
+        <v>64</v>
+      </c>
+      <c r="C72" s="50"/>
       <c r="D72" s="51"/>
-      <c r="E72" s="53"/>
+      <c r="E72" s="50"/>
       <c r="F72" s="51"/>
-      <c r="G72" s="53"/>
+      <c r="G72" s="50"/>
       <c r="H72" s="51"/>
-      <c r="I72" s="53"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="51"/>
-      <c r="K72" s="53"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="51"/>
-      <c r="M72" s="53"/>
+      <c r="M72" s="50"/>
       <c r="N72" s="51"/>
-      <c r="O72" s="53"/>
+      <c r="O72" s="50"/>
       <c r="P72" s="51"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="61"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="42"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="55"/>
+        <v>54</v>
+      </c>
+      <c r="C74" s="45"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="43"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="50"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="48"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="53"/>
+        <v>55</v>
+      </c>
+      <c r="C76" s="50"/>
       <c r="D76" s="51"/>
-      <c r="E76" s="53"/>
+      <c r="E76" s="50"/>
       <c r="F76" s="51"/>
-      <c r="G76" s="53"/>
+      <c r="G76" s="50"/>
       <c r="H76" s="51"/>
-      <c r="I76" s="53"/>
+      <c r="I76" s="50"/>
       <c r="J76" s="51"/>
-      <c r="K76" s="53"/>
+      <c r="K76" s="50"/>
       <c r="L76" s="51"/>
-      <c r="M76" s="53"/>
+      <c r="M76" s="50"/>
       <c r="N76" s="51"/>
-      <c r="O76" s="53"/>
+      <c r="O76" s="50"/>
       <c r="P76" s="51"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
-      <c r="B77" s="83" t="s">
+      <c r="B77" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="61"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="42"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="55"/>
+        <v>60</v>
+      </c>
+      <c r="C78" s="45"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="43"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="50"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="48"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="53"/>
+      <c r="C80" s="50"/>
       <c r="D80" s="51"/>
-      <c r="E80" s="53"/>
+      <c r="E80" s="50"/>
       <c r="F80" s="51"/>
-      <c r="G80" s="53"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="51"/>
-      <c r="I80" s="53"/>
+      <c r="I80" s="50"/>
       <c r="J80" s="51"/>
-      <c r="K80" s="53"/>
+      <c r="K80" s="50"/>
       <c r="L80" s="51"/>
-      <c r="M80" s="53"/>
+      <c r="M80" s="50"/>
       <c r="N80" s="51"/>
-      <c r="O80" s="53"/>
+      <c r="O80" s="50"/>
       <c r="P80" s="51"/>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="56"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="61"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="42"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="55"/>
+        <v>56</v>
+      </c>
+      <c r="C82" s="45"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="43"/>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="52"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="50"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="48"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="53"/>
+        <v>57</v>
+      </c>
+      <c r="C84" s="50"/>
       <c r="D84" s="51"/>
-      <c r="E84" s="53"/>
+      <c r="E84" s="50"/>
       <c r="F84" s="51"/>
-      <c r="G84" s="53"/>
+      <c r="G84" s="50"/>
       <c r="H84" s="51"/>
-      <c r="I84" s="53"/>
+      <c r="I84" s="50"/>
       <c r="J84" s="51"/>
-      <c r="K84" s="53"/>
+      <c r="K84" s="50"/>
       <c r="L84" s="51"/>
-      <c r="M84" s="53"/>
+      <c r="M84" s="50"/>
       <c r="N84" s="51"/>
-      <c r="O84" s="53"/>
+      <c r="O84" s="50"/>
       <c r="P84" s="51"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="61"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="42"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="55"/>
+        <v>61</v>
+      </c>
+      <c r="C86" s="45"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="43"/>
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="50"/>
+        <v>62</v>
+      </c>
+      <c r="C87" s="46"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="48"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="62"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="62"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="62"/>
-      <c r="P88" s="63"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="49"/>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" spans="1:17" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="4.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="7"/>
       <c r="C89" s="3"/>
@@ -3514,7 +3514,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="6"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3531,7 +3531,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
@@ -3550,515 +3550,515 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
-      <c r="B92" s="79" t="s">
+      <c r="B92" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
-      <c r="M92" s="80"/>
-      <c r="N92" s="80"/>
-      <c r="O92" s="64"/>
-      <c r="P92" s="65"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="58"/>
+      <c r="P92" s="59"/>
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="82"/>
-      <c r="K93" s="82"/>
-      <c r="L93" s="82"/>
-      <c r="M93" s="82"/>
-      <c r="N93" s="82"/>
-      <c r="O93" s="66"/>
-      <c r="P93" s="67"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="60"/>
+      <c r="P93" s="61"/>
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="44"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="64"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="64"/>
+      <c r="N94" s="65"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="65"/>
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3"/>
-      <c r="B95" s="49"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="E95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="G95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="I95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J95" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="K95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L95" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="M95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N95" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="O95" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P95" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P95" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="54"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="52"/>
+      <c r="O96" s="53"/>
+      <c r="P96" s="52"/>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="46"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="55"/>
+        <v>42</v>
+      </c>
+      <c r="C97" s="45"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="43"/>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="52"/>
-      <c r="N98" s="50"/>
-      <c r="O98" s="52"/>
-      <c r="P98" s="50"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="46"/>
+      <c r="P98" s="48"/>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="53"/>
+        <v>63</v>
+      </c>
+      <c r="C99" s="50"/>
       <c r="D99" s="51"/>
-      <c r="E99" s="53"/>
+      <c r="E99" s="50"/>
       <c r="F99" s="51"/>
-      <c r="G99" s="53"/>
+      <c r="G99" s="50"/>
       <c r="H99" s="51"/>
-      <c r="I99" s="53"/>
+      <c r="I99" s="50"/>
       <c r="J99" s="51"/>
-      <c r="K99" s="53"/>
+      <c r="K99" s="50"/>
       <c r="L99" s="51"/>
-      <c r="M99" s="53"/>
+      <c r="M99" s="50"/>
       <c r="N99" s="51"/>
-      <c r="O99" s="53"/>
+      <c r="O99" s="50"/>
       <c r="P99" s="51"/>
       <c r="Q99" s="3"/>
     </row>
-    <row r="100" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="61"/>
-      <c r="M100" s="56"/>
-      <c r="N100" s="61"/>
-      <c r="O100" s="56"/>
-      <c r="P100" s="61"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="44"/>
+      <c r="P100" s="42"/>
       <c r="Q100" s="3"/>
     </row>
-    <row r="101" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="17"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="55"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="43"/>
       <c r="Q101" s="3"/>
     </row>
-    <row r="102" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" s="52"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="52"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="52"/>
-      <c r="N102" s="50"/>
-      <c r="O102" s="52"/>
-      <c r="P102" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="C102" s="46"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="48"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="48"/>
       <c r="Q102" s="3"/>
     </row>
-    <row r="103" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="53"/>
+        <v>52</v>
+      </c>
+      <c r="C103" s="50"/>
       <c r="D103" s="51"/>
-      <c r="E103" s="53"/>
+      <c r="E103" s="50"/>
       <c r="F103" s="51"/>
-      <c r="G103" s="53"/>
+      <c r="G103" s="50"/>
       <c r="H103" s="51"/>
-      <c r="I103" s="53"/>
+      <c r="I103" s="50"/>
       <c r="J103" s="51"/>
-      <c r="K103" s="53"/>
+      <c r="K103" s="50"/>
       <c r="L103" s="51"/>
-      <c r="M103" s="53"/>
+      <c r="M103" s="50"/>
       <c r="N103" s="51"/>
-      <c r="O103" s="53"/>
+      <c r="O103" s="50"/>
       <c r="P103" s="51"/>
       <c r="Q103" s="3"/>
     </row>
-    <row r="104" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="61"/>
-      <c r="M104" s="56"/>
-      <c r="N104" s="61"/>
-      <c r="O104" s="56"/>
-      <c r="P104" s="61"/>
+        <v>49</v>
+      </c>
+      <c r="C104" s="44"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="44"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="42"/>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="46"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="55"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="55"/>
-      <c r="M105" s="46"/>
-      <c r="N105" s="55"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="55"/>
+        <v>53</v>
+      </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="43"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="43"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="52"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="52"/>
-      <c r="L106" s="50"/>
-      <c r="M106" s="52"/>
-      <c r="N106" s="50"/>
-      <c r="O106" s="52"/>
-      <c r="P106" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="46"/>
+      <c r="N106" s="48"/>
+      <c r="O106" s="46"/>
+      <c r="P106" s="48"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="C107" s="50"/>
       <c r="D107" s="51"/>
-      <c r="E107" s="53"/>
+      <c r="E107" s="50"/>
       <c r="F107" s="51"/>
-      <c r="G107" s="53"/>
+      <c r="G107" s="50"/>
       <c r="H107" s="51"/>
-      <c r="I107" s="53"/>
+      <c r="I107" s="50"/>
       <c r="J107" s="51"/>
-      <c r="K107" s="53"/>
+      <c r="K107" s="50"/>
       <c r="L107" s="51"/>
-      <c r="M107" s="53"/>
+      <c r="M107" s="50"/>
       <c r="N107" s="51"/>
-      <c r="O107" s="53"/>
+      <c r="O107" s="50"/>
       <c r="P107" s="51"/>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="61"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="61"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="61"/>
-      <c r="M108" s="56"/>
-      <c r="N108" s="61"/>
-      <c r="O108" s="56"/>
-      <c r="P108" s="61"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="44"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="44"/>
+      <c r="P108" s="42"/>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="11"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="55"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="55"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="55"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="55"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="43"/>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="52"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="52"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="52"/>
-      <c r="N110" s="50"/>
-      <c r="O110" s="52"/>
-      <c r="P110" s="50"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="48"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="13"/>
-      <c r="C111" s="53"/>
+      <c r="C111" s="50"/>
       <c r="D111" s="51"/>
-      <c r="E111" s="53"/>
+      <c r="E111" s="50"/>
       <c r="F111" s="51"/>
-      <c r="G111" s="53"/>
+      <c r="G111" s="50"/>
       <c r="H111" s="51"/>
-      <c r="I111" s="53"/>
+      <c r="I111" s="50"/>
       <c r="J111" s="51"/>
-      <c r="K111" s="53"/>
+      <c r="K111" s="50"/>
       <c r="L111" s="51"/>
-      <c r="M111" s="53"/>
+      <c r="M111" s="50"/>
       <c r="N111" s="51"/>
-      <c r="O111" s="53"/>
+      <c r="O111" s="50"/>
       <c r="P111" s="51"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="61"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="61"/>
-      <c r="O112" s="56"/>
-      <c r="P112" s="61"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="44"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="44"/>
+      <c r="P112" s="42"/>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="11"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="55"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="55"/>
-      <c r="M113" s="46"/>
-      <c r="N113" s="55"/>
-      <c r="O113" s="46"/>
-      <c r="P113" s="55"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="43"/>
+      <c r="O113" s="45"/>
+      <c r="P113" s="43"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="34.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="12"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="50"/>
-      <c r="K114" s="52"/>
-      <c r="L114" s="50"/>
-      <c r="M114" s="52"/>
-      <c r="N114" s="50"/>
-      <c r="O114" s="52"/>
-      <c r="P114" s="50"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="48"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="48"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="48"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="3"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="63"/>
-      <c r="K115" s="62"/>
-      <c r="L115" s="63"/>
-      <c r="M115" s="62"/>
-      <c r="N115" s="63"/>
-      <c r="O115" s="62"/>
-      <c r="P115" s="63"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="47"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="47"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="47"/>
+      <c r="P115" s="49"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="1:17" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="4.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="7"/>
       <c r="C116" s="3"/>
@@ -4079,6 +4079,584 @@
     </row>
   </sheetData>
   <mergeCells count="602">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="B65:N66"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="B92:N93"/>
+    <mergeCell ref="O92:P93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="P106:P107"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="N108:N109"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="P108:P109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="P110:P111"/>
     <mergeCell ref="L112:L113"/>
     <mergeCell ref="M112:M113"/>
     <mergeCell ref="N112:N113"/>
@@ -4103,584 +4681,6 @@
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="F112:F113"/>
     <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="N108:N109"/>
-    <mergeCell ref="O108:O109"/>
-    <mergeCell ref="P108:P109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="N110:N111"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="P110:P111"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="P104:P105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="P106:P107"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="P100:P101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="P96:P97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="B92:N93"/>
-    <mergeCell ref="O92:P93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="B65:N66"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:N1048576">
@@ -4691,7 +4691,7 @@
       <formula>NOT(ISERROR(SEARCH("Al Rayyan",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47 C48:P56 C57 C1:P46 C58:P1048576">
+  <conditionalFormatting sqref="C1:P46 C47 C48:P56 C57 C58:P1048576">
     <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="TRAINING CAMP">
       <formula>NOT(ISERROR(SEARCH("TRAINING CAMP",C1)))</formula>
     </cfRule>
@@ -4705,7 +4705,7 @@
       <formula>NOT(ISERROR(SEARCH("Physiology Lab",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47 C48:Q56 C57 Q47 Q57 C1:Q46 C58:Q1048576">
+  <conditionalFormatting sqref="C1:Q46 C47 C48:Q56 C57 C58:Q1048576 Q47 Q57">
     <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="Blue Ice">
       <formula>NOT(ISERROR(SEARCH("Blue Ice",C1)))</formula>
     </cfRule>
